--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://menschnextbigthing.sharepoint.com/sites/Netshare/Freigegebene Dokumente/02 Vorlagen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://menschnextbigthing-my.sharepoint.com/personal/puttaswamy_mensch-nextbigthing_de/Documents/Desktop/WIN-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="971" documentId="13_ncr:1_{9767DF6C-549E-4C81-9BEC-E0276A6EE198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FB5406-8425-4395-9E8D-D8964E82BFE5}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="13_ncr:1_{9767DF6C-549E-4C81-9BEC-E0276A6EE198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F62510DA-1DC4-4F78-9B8D-9393802BC1F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-26355" yWindow="-330" windowWidth="14400" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektübersicht" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="37">
   <si>
     <t>Kunde</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Dez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -625,19 +631,16 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,19 +654,6 @@
     <cellStyle name="Währung 3" xfId="6" xr:uid="{345A3E83-E4A9-47C3-A19E-A2E89134F3CE}"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color theme="8"/>
@@ -1161,6 +1151,19 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF474395"/>
         </patternFill>
       </fill>
@@ -1548,23 +1551,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7039DE6F-908A-4A91-A696-576BD92972FF}">
   <dimension ref="A1:AJ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="32" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" style="32" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" style="32" customWidth="1"/>
-    <col min="9" max="36" width="11.42578125" style="32"/>
-    <col min="37" max="16384" width="11.42578125" style="33"/>
+    <col min="1" max="1" width="20.81640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" style="32" customWidth="1"/>
+    <col min="5" max="6" width="17.81640625" style="32" customWidth="1"/>
+    <col min="7" max="8" width="15.453125" style="32" customWidth="1"/>
+    <col min="9" max="36" width="11.453125" style="32"/>
+    <col min="37" max="16384" width="11.453125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="28" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="28" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1607,7 @@
       <c r="AI1" s="27"/>
       <c r="AJ1" s="27"/>
     </row>
-    <row r="2" spans="1:36" s="28" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="28" customFormat="1" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1657,7 @@
       <c r="AI2" s="27"/>
       <c r="AJ2" s="27"/>
     </row>
-    <row r="3" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="AI3" s="27"/>
       <c r="AJ3" s="27"/>
     </row>
-    <row r="4" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1742,7 @@
       <c r="AI4" s="27"/>
       <c r="AJ4" s="27"/>
     </row>
-    <row r="5" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1785,7 @@
       <c r="AI5" s="27"/>
       <c r="AJ5" s="27"/>
     </row>
-    <row r="6" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1828,7 @@
       <c r="AI6" s="27"/>
       <c r="AJ6" s="27"/>
     </row>
-    <row r="7" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1871,7 @@
       <c r="AI7" s="27"/>
       <c r="AJ7" s="27"/>
     </row>
-    <row r="8" spans="1:36" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -1909,7 +1912,7 @@
       <c r="AI8" s="27"/>
       <c r="AJ8" s="27"/>
     </row>
-    <row r="9" spans="1:36" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -1950,7 +1953,7 @@
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
     </row>
-    <row r="10" spans="1:36" s="31" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>12</v>
       </c>
@@ -1993,7 +1996,7 @@
       <c r="AI10" s="32"/>
       <c r="AJ10" s="32"/>
     </row>
-    <row r="11" spans="1:36" s="31" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="48"/>
       <c r="B11" s="49"/>
       <c r="C11" s="26"/>
@@ -2034,7 +2037,7 @@
       <c r="AI11" s="32"/>
       <c r="AJ11" s="32"/>
     </row>
-    <row r="12" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="23" t="s">
         <v>13</v>
@@ -2049,7 +2052,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="26"/>
@@ -2062,7 +2065,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -2075,7 +2078,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -2088,7 +2091,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -2129,7 +2132,7 @@
       <c r="AI16" s="32"/>
       <c r="AJ16" s="32"/>
     </row>
-    <row r="17" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -2170,7 +2173,7 @@
       <c r="AI17" s="32"/>
       <c r="AJ17" s="32"/>
     </row>
-    <row r="18" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -2211,7 +2214,7 @@
       <c r="AI18" s="32"/>
       <c r="AJ18" s="32"/>
     </row>
-    <row r="19" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="26"/>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2250,7 +2253,7 @@
       <c r="AI19" s="32"/>
       <c r="AJ19" s="32"/>
     </row>
-    <row r="20" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="26"/>
       <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2289,7 +2292,7 @@
       <c r="AI20" s="32"/>
       <c r="AJ20" s="32"/>
     </row>
-    <row r="21" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2327,7 +2330,7 @@
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
     </row>
-    <row r="22" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2365,7 +2368,7 @@
       <c r="AI22" s="32"/>
       <c r="AJ22" s="32"/>
     </row>
-    <row r="23" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2403,7 +2406,7 @@
       <c r="AI23" s="32"/>
       <c r="AJ23" s="32"/>
     </row>
-    <row r="24" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2441,7 +2444,7 @@
       <c r="AI24" s="32"/>
       <c r="AJ24" s="32"/>
     </row>
-    <row r="25" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2479,7 +2482,7 @@
       <c r="AI25" s="32"/>
       <c r="AJ25" s="32"/>
     </row>
-    <row r="26" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2517,7 +2520,7 @@
       <c r="AI26" s="32"/>
       <c r="AJ26" s="32"/>
     </row>
-    <row r="27" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2555,7 +2558,7 @@
       <c r="AI27" s="32"/>
       <c r="AJ27" s="32"/>
     </row>
-    <row r="28" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2593,7 +2596,7 @@
       <c r="AI28" s="32"/>
       <c r="AJ28" s="32"/>
     </row>
-    <row r="29" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2631,7 +2634,7 @@
       <c r="AI29" s="32"/>
       <c r="AJ29" s="32"/>
     </row>
-    <row r="30" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2669,7 +2672,7 @@
       <c r="AI30" s="32"/>
       <c r="AJ30" s="32"/>
     </row>
-    <row r="31" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2707,7 +2710,7 @@
       <c r="AI31" s="32"/>
       <c r="AJ31" s="32"/>
     </row>
-    <row r="32" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2751,7 +2754,7 @@
       <c r="AI32" s="32"/>
       <c r="AJ32" s="32"/>
     </row>
-    <row r="33" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D33" s="11" t="str">
         <f>IF(E33="","",#REF!+1)</f>
         <v/>
@@ -2789,7 +2792,7 @@
       <c r="AI33" s="32"/>
       <c r="AJ33" s="32"/>
     </row>
-    <row r="34" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -2824,7 +2827,7 @@
       <c r="AI34" s="32"/>
       <c r="AJ34" s="32"/>
     </row>
-    <row r="35" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
@@ -2859,7 +2862,7 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="32"/>
     </row>
-    <row r="36" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
@@ -2894,7 +2897,7 @@
       <c r="AI36" s="32"/>
       <c r="AJ36" s="32"/>
     </row>
-    <row r="37" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
@@ -2929,7 +2932,7 @@
       <c r="AI37" s="32"/>
       <c r="AJ37" s="32"/>
     </row>
-    <row r="38" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -2964,7 +2967,7 @@
       <c r="AI38" s="32"/>
       <c r="AJ38" s="32"/>
     </row>
-    <row r="39" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
@@ -2999,7 +3002,7 @@
       <c r="AI39" s="32"/>
       <c r="AJ39" s="32"/>
     </row>
-    <row r="40" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
@@ -3034,7 +3037,7 @@
       <c r="AI40" s="32"/>
       <c r="AJ40" s="32"/>
     </row>
-    <row r="41" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
@@ -3069,7 +3072,7 @@
       <c r="AI41" s="32"/>
       <c r="AJ41" s="32"/>
     </row>
-    <row r="42" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
@@ -3104,7 +3107,7 @@
       <c r="AI42" s="32"/>
       <c r="AJ42" s="32"/>
     </row>
-    <row r="43" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -3139,7 +3142,7 @@
       <c r="AI43" s="32"/>
       <c r="AJ43" s="32"/>
     </row>
-    <row r="44" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
@@ -3174,7 +3177,7 @@
       <c r="AI44" s="32"/>
       <c r="AJ44" s="32"/>
     </row>
-    <row r="45" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
@@ -3209,7 +3212,7 @@
       <c r="AI45" s="32"/>
       <c r="AJ45" s="32"/>
     </row>
-    <row r="46" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -3244,7 +3247,7 @@
       <c r="AI46" s="32"/>
       <c r="AJ46" s="32"/>
     </row>
-    <row r="47" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -3279,7 +3282,7 @@
       <c r="AI47" s="32"/>
       <c r="AJ47" s="32"/>
     </row>
-    <row r="48" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
@@ -3314,7 +3317,7 @@
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32"/>
     </row>
-    <row r="49" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
@@ -3349,7 +3352,7 @@
       <c r="AI49" s="32"/>
       <c r="AJ49" s="32"/>
     </row>
-    <row r="50" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -3384,7 +3387,7 @@
       <c r="AI50" s="32"/>
       <c r="AJ50" s="32"/>
     </row>
-    <row r="51" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -3419,7 +3422,7 @@
       <c r="AI51" s="32"/>
       <c r="AJ51" s="32"/>
     </row>
-    <row r="52" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
@@ -3454,7 +3457,7 @@
       <c r="AI52" s="32"/>
       <c r="AJ52" s="32"/>
     </row>
-    <row r="53" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
@@ -3489,7 +3492,7 @@
       <c r="AI53" s="32"/>
       <c r="AJ53" s="32"/>
     </row>
-    <row r="54" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
@@ -3524,7 +3527,7 @@
       <c r="AI54" s="32"/>
       <c r="AJ54" s="32"/>
     </row>
-    <row r="55" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
@@ -3559,7 +3562,7 @@
       <c r="AI55" s="32"/>
       <c r="AJ55" s="32"/>
     </row>
-    <row r="56" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
@@ -3594,7 +3597,7 @@
       <c r="AI56" s="32"/>
       <c r="AJ56" s="32"/>
     </row>
-    <row r="57" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
@@ -3629,7 +3632,7 @@
       <c r="AI57" s="32"/>
       <c r="AJ57" s="32"/>
     </row>
-    <row r="58" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
@@ -3664,7 +3667,7 @@
       <c r="AI58" s="32"/>
       <c r="AJ58" s="32"/>
     </row>
-    <row r="59" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
@@ -3699,7 +3702,7 @@
       <c r="AI59" s="32"/>
       <c r="AJ59" s="32"/>
     </row>
-    <row r="60" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
@@ -3734,7 +3737,7 @@
       <c r="AI60" s="32"/>
       <c r="AJ60" s="32"/>
     </row>
-    <row r="61" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
@@ -3769,7 +3772,7 @@
       <c r="AI61" s="32"/>
       <c r="AJ61" s="32"/>
     </row>
-    <row r="62" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
@@ -3804,7 +3807,7 @@
       <c r="AI62" s="32"/>
       <c r="AJ62" s="32"/>
     </row>
-    <row r="63" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
@@ -3839,7 +3842,7 @@
       <c r="AI63" s="32"/>
       <c r="AJ63" s="32"/>
     </row>
-    <row r="64" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
@@ -3874,7 +3877,7 @@
       <c r="AI64" s="32"/>
       <c r="AJ64" s="32"/>
     </row>
-    <row r="65" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
@@ -3909,7 +3912,7 @@
       <c r="AI65" s="32"/>
       <c r="AJ65" s="32"/>
     </row>
-    <row r="66" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
@@ -3944,7 +3947,7 @@
       <c r="AI66" s="32"/>
       <c r="AJ66" s="32"/>
     </row>
-    <row r="67" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
@@ -3979,7 +3982,7 @@
       <c r="AI67" s="32"/>
       <c r="AJ67" s="32"/>
     </row>
-    <row r="68" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
@@ -4014,7 +4017,7 @@
       <c r="AI68" s="32"/>
       <c r="AJ68" s="32"/>
     </row>
-    <row r="69" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
@@ -4049,7 +4052,7 @@
       <c r="AI69" s="32"/>
       <c r="AJ69" s="32"/>
     </row>
-    <row r="70" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
@@ -4084,7 +4087,7 @@
       <c r="AI70" s="32"/>
       <c r="AJ70" s="32"/>
     </row>
-    <row r="71" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D71" s="32"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
@@ -4119,7 +4122,7 @@
       <c r="AI71" s="32"/>
       <c r="AJ71" s="32"/>
     </row>
-    <row r="72" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
@@ -4154,7 +4157,7 @@
       <c r="AI72" s="32"/>
       <c r="AJ72" s="32"/>
     </row>
-    <row r="73" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
@@ -4189,7 +4192,7 @@
       <c r="AI73" s="32"/>
       <c r="AJ73" s="32"/>
     </row>
-    <row r="74" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -4224,7 +4227,7 @@
       <c r="AI74" s="32"/>
       <c r="AJ74" s="32"/>
     </row>
-    <row r="75" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
@@ -4259,7 +4262,7 @@
       <c r="AI75" s="32"/>
       <c r="AJ75" s="32"/>
     </row>
-    <row r="76" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
@@ -4294,7 +4297,7 @@
       <c r="AI76" s="32"/>
       <c r="AJ76" s="32"/>
     </row>
-    <row r="77" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
@@ -4329,7 +4332,7 @@
       <c r="AI77" s="32"/>
       <c r="AJ77" s="32"/>
     </row>
-    <row r="78" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
@@ -4364,7 +4367,7 @@
       <c r="AI78" s="32"/>
       <c r="AJ78" s="32"/>
     </row>
-    <row r="79" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
@@ -4399,7 +4402,7 @@
       <c r="AI79" s="32"/>
       <c r="AJ79" s="32"/>
     </row>
-    <row r="80" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
@@ -4434,7 +4437,7 @@
       <c r="AI80" s="32"/>
       <c r="AJ80" s="32"/>
     </row>
-    <row r="81" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
@@ -4469,7 +4472,7 @@
       <c r="AI81" s="32"/>
       <c r="AJ81" s="32"/>
     </row>
-    <row r="82" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
@@ -4504,7 +4507,7 @@
       <c r="AI82" s="32"/>
       <c r="AJ82" s="32"/>
     </row>
-    <row r="83" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
@@ -4539,7 +4542,7 @@
       <c r="AI83" s="32"/>
       <c r="AJ83" s="32"/>
     </row>
-    <row r="84" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D84" s="32"/>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
@@ -4574,7 +4577,7 @@
       <c r="AI84" s="32"/>
       <c r="AJ84" s="32"/>
     </row>
-    <row r="85" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
@@ -4609,7 +4612,7 @@
       <c r="AI85" s="32"/>
       <c r="AJ85" s="32"/>
     </row>
-    <row r="86" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
@@ -4644,7 +4647,7 @@
       <c r="AI86" s="32"/>
       <c r="AJ86" s="32"/>
     </row>
-    <row r="87" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D87" s="32"/>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
@@ -4679,7 +4682,7 @@
       <c r="AI87" s="32"/>
       <c r="AJ87" s="32"/>
     </row>
-    <row r="88" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D88" s="32"/>
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
@@ -4714,7 +4717,7 @@
       <c r="AI88" s="32"/>
       <c r="AJ88" s="32"/>
     </row>
-    <row r="89" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D89" s="32"/>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
@@ -4749,7 +4752,7 @@
       <c r="AI89" s="32"/>
       <c r="AJ89" s="32"/>
     </row>
-    <row r="90" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D90" s="32"/>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
@@ -4784,7 +4787,7 @@
       <c r="AI90" s="32"/>
       <c r="AJ90" s="32"/>
     </row>
-    <row r="91" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D91" s="32"/>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
@@ -4819,7 +4822,7 @@
       <c r="AI91" s="32"/>
       <c r="AJ91" s="32"/>
     </row>
-    <row r="92" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D92" s="32"/>
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
@@ -4854,7 +4857,7 @@
       <c r="AI92" s="32"/>
       <c r="AJ92" s="32"/>
     </row>
-    <row r="93" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
@@ -4889,7 +4892,7 @@
       <c r="AI93" s="32"/>
       <c r="AJ93" s="32"/>
     </row>
-    <row r="94" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D94" s="32"/>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
@@ -4924,7 +4927,7 @@
       <c r="AI94" s="32"/>
       <c r="AJ94" s="32"/>
     </row>
-    <row r="95" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D95" s="32"/>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
@@ -4959,7 +4962,7 @@
       <c r="AI95" s="32"/>
       <c r="AJ95" s="32"/>
     </row>
-    <row r="96" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D96" s="32"/>
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
@@ -4994,7 +4997,7 @@
       <c r="AI96" s="32"/>
       <c r="AJ96" s="32"/>
     </row>
-    <row r="97" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D97" s="32"/>
       <c r="E97" s="32"/>
       <c r="F97" s="32"/>
@@ -5029,7 +5032,7 @@
       <c r="AI97" s="32"/>
       <c r="AJ97" s="32"/>
     </row>
-    <row r="98" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D98" s="32"/>
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
@@ -5064,7 +5067,7 @@
       <c r="AI98" s="32"/>
       <c r="AJ98" s="32"/>
     </row>
-    <row r="99" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D99" s="32"/>
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
@@ -5099,7 +5102,7 @@
       <c r="AI99" s="32"/>
       <c r="AJ99" s="32"/>
     </row>
-    <row r="100" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D100" s="32"/>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
@@ -5134,7 +5137,7 @@
       <c r="AI100" s="32"/>
       <c r="AJ100" s="32"/>
     </row>
-    <row r="101" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D101" s="32"/>
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
@@ -5169,7 +5172,7 @@
       <c r="AI101" s="32"/>
       <c r="AJ101" s="32"/>
     </row>
-    <row r="102" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
@@ -5204,7 +5207,7 @@
       <c r="AI102" s="32"/>
       <c r="AJ102" s="32"/>
     </row>
-    <row r="103" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
@@ -5239,7 +5242,7 @@
       <c r="AI103" s="32"/>
       <c r="AJ103" s="32"/>
     </row>
-    <row r="104" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D104" s="32"/>
       <c r="E104" s="32"/>
       <c r="F104" s="32"/>
@@ -5274,7 +5277,7 @@
       <c r="AI104" s="32"/>
       <c r="AJ104" s="32"/>
     </row>
-    <row r="105" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D105" s="32"/>
       <c r="E105" s="32"/>
       <c r="F105" s="32"/>
@@ -5309,7 +5312,7 @@
       <c r="AI105" s="32"/>
       <c r="AJ105" s="32"/>
     </row>
-    <row r="106" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D106" s="32"/>
       <c r="E106" s="32"/>
       <c r="F106" s="32"/>
@@ -5344,7 +5347,7 @@
       <c r="AI106" s="32"/>
       <c r="AJ106" s="32"/>
     </row>
-    <row r="107" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D107" s="32"/>
       <c r="E107" s="32"/>
       <c r="F107" s="32"/>
@@ -5379,7 +5382,7 @@
       <c r="AI107" s="32"/>
       <c r="AJ107" s="32"/>
     </row>
-    <row r="108" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D108" s="32"/>
       <c r="E108" s="32"/>
       <c r="F108" s="32"/>
@@ -5414,7 +5417,7 @@
       <c r="AI108" s="32"/>
       <c r="AJ108" s="32"/>
     </row>
-    <row r="109" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D109" s="32"/>
       <c r="E109" s="32"/>
       <c r="F109" s="32"/>
@@ -5449,7 +5452,7 @@
       <c r="AI109" s="32"/>
       <c r="AJ109" s="32"/>
     </row>
-    <row r="110" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D110" s="32"/>
       <c r="E110" s="32"/>
       <c r="F110" s="32"/>
@@ -5484,7 +5487,7 @@
       <c r="AI110" s="32"/>
       <c r="AJ110" s="32"/>
     </row>
-    <row r="111" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D111" s="32"/>
       <c r="E111" s="32"/>
       <c r="F111" s="32"/>
@@ -5519,7 +5522,7 @@
       <c r="AI111" s="32"/>
       <c r="AJ111" s="32"/>
     </row>
-    <row r="112" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D112" s="32"/>
       <c r="E112" s="32"/>
       <c r="F112" s="32"/>
@@ -5554,7 +5557,7 @@
       <c r="AI112" s="32"/>
       <c r="AJ112" s="32"/>
     </row>
-    <row r="113" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D113" s="32"/>
       <c r="E113" s="32"/>
       <c r="F113" s="32"/>
@@ -5589,7 +5592,7 @@
       <c r="AI113" s="32"/>
       <c r="AJ113" s="32"/>
     </row>
-    <row r="114" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D114" s="32"/>
       <c r="E114" s="32"/>
       <c r="F114" s="32"/>
@@ -5624,7 +5627,7 @@
       <c r="AI114" s="32"/>
       <c r="AJ114" s="32"/>
     </row>
-    <row r="115" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D115" s="32"/>
       <c r="E115" s="32"/>
       <c r="F115" s="32"/>
@@ -5659,7 +5662,7 @@
       <c r="AI115" s="32"/>
       <c r="AJ115" s="32"/>
     </row>
-    <row r="116" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D116" s="32"/>
       <c r="E116" s="32"/>
       <c r="F116" s="32"/>
@@ -5694,7 +5697,7 @@
       <c r="AI116" s="32"/>
       <c r="AJ116" s="32"/>
     </row>
-    <row r="117" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D117" s="32"/>
       <c r="E117" s="32"/>
       <c r="F117" s="32"/>
@@ -5729,7 +5732,7 @@
       <c r="AI117" s="32"/>
       <c r="AJ117" s="32"/>
     </row>
-    <row r="118" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D118" s="32"/>
       <c r="E118" s="32"/>
       <c r="F118" s="32"/>
@@ -5764,7 +5767,7 @@
       <c r="AI118" s="32"/>
       <c r="AJ118" s="32"/>
     </row>
-    <row r="119" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D119" s="32"/>
       <c r="E119" s="32"/>
       <c r="F119" s="32"/>
@@ -5799,7 +5802,7 @@
       <c r="AI119" s="32"/>
       <c r="AJ119" s="32"/>
     </row>
-    <row r="120" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D120" s="32"/>
       <c r="E120" s="32"/>
       <c r="F120" s="32"/>
@@ -5834,7 +5837,7 @@
       <c r="AI120" s="32"/>
       <c r="AJ120" s="32"/>
     </row>
-    <row r="121" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D121" s="32"/>
       <c r="E121" s="32"/>
       <c r="F121" s="32"/>
@@ -5869,7 +5872,7 @@
       <c r="AI121" s="32"/>
       <c r="AJ121" s="32"/>
     </row>
-    <row r="122" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D122" s="32"/>
       <c r="E122" s="32"/>
       <c r="F122" s="32"/>
@@ -5904,7 +5907,7 @@
       <c r="AI122" s="32"/>
       <c r="AJ122" s="32"/>
     </row>
-    <row r="123" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D123" s="32"/>
       <c r="E123" s="32"/>
       <c r="F123" s="32"/>
@@ -5939,7 +5942,7 @@
       <c r="AI123" s="32"/>
       <c r="AJ123" s="32"/>
     </row>
-    <row r="124" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
       <c r="F124" s="32"/>
@@ -5974,7 +5977,7 @@
       <c r="AI124" s="32"/>
       <c r="AJ124" s="32"/>
     </row>
-    <row r="125" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D125" s="32"/>
       <c r="E125" s="32"/>
       <c r="F125" s="32"/>
@@ -6009,7 +6012,7 @@
       <c r="AI125" s="32"/>
       <c r="AJ125" s="32"/>
     </row>
-    <row r="126" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D126" s="32"/>
       <c r="E126" s="32"/>
       <c r="F126" s="32"/>
@@ -6044,7 +6047,7 @@
       <c r="AI126" s="32"/>
       <c r="AJ126" s="32"/>
     </row>
-    <row r="127" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D127" s="32"/>
       <c r="E127" s="32"/>
       <c r="F127" s="32"/>
@@ -6079,7 +6082,7 @@
       <c r="AI127" s="32"/>
       <c r="AJ127" s="32"/>
     </row>
-    <row r="128" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D128" s="32"/>
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
@@ -6114,7 +6117,7 @@
       <c r="AI128" s="32"/>
       <c r="AJ128" s="32"/>
     </row>
-    <row r="129" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D129" s="32"/>
       <c r="E129" s="32"/>
       <c r="F129" s="32"/>
@@ -6149,7 +6152,7 @@
       <c r="AI129" s="32"/>
       <c r="AJ129" s="32"/>
     </row>
-    <row r="130" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D130" s="32"/>
       <c r="E130" s="32"/>
       <c r="F130" s="32"/>
@@ -6184,7 +6187,7 @@
       <c r="AI130" s="32"/>
       <c r="AJ130" s="32"/>
     </row>
-    <row r="131" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D131" s="32"/>
       <c r="E131" s="32"/>
       <c r="F131" s="32"/>
@@ -6219,7 +6222,7 @@
       <c r="AI131" s="32"/>
       <c r="AJ131" s="32"/>
     </row>
-    <row r="132" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
       <c r="F132" s="32"/>
@@ -6254,7 +6257,7 @@
       <c r="AI132" s="32"/>
       <c r="AJ132" s="32"/>
     </row>
-    <row r="133" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D133" s="32"/>
       <c r="E133" s="32"/>
       <c r="F133" s="32"/>
@@ -6289,7 +6292,7 @@
       <c r="AI133" s="32"/>
       <c r="AJ133" s="32"/>
     </row>
-    <row r="134" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D134" s="32"/>
       <c r="E134" s="32"/>
       <c r="F134" s="32"/>
@@ -6324,7 +6327,7 @@
       <c r="AI134" s="32"/>
       <c r="AJ134" s="32"/>
     </row>
-    <row r="135" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D135" s="32"/>
       <c r="E135" s="32"/>
       <c r="F135" s="32"/>
@@ -6359,7 +6362,7 @@
       <c r="AI135" s="32"/>
       <c r="AJ135" s="32"/>
     </row>
-    <row r="136" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D136" s="32"/>
       <c r="E136" s="32"/>
       <c r="F136" s="32"/>
@@ -6394,7 +6397,7 @@
       <c r="AI136" s="32"/>
       <c r="AJ136" s="32"/>
     </row>
-    <row r="137" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D137" s="32"/>
       <c r="E137" s="32"/>
       <c r="F137" s="32"/>
@@ -6429,7 +6432,7 @@
       <c r="AI137" s="32"/>
       <c r="AJ137" s="32"/>
     </row>
-    <row r="138" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D138" s="32"/>
       <c r="E138" s="32"/>
       <c r="F138" s="32"/>
@@ -6464,7 +6467,7 @@
       <c r="AI138" s="32"/>
       <c r="AJ138" s="32"/>
     </row>
-    <row r="139" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D139" s="32"/>
       <c r="E139" s="32"/>
       <c r="F139" s="32"/>
@@ -6499,7 +6502,7 @@
       <c r="AI139" s="32"/>
       <c r="AJ139" s="32"/>
     </row>
-    <row r="140" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D140" s="32"/>
       <c r="E140" s="32"/>
       <c r="F140" s="32"/>
@@ -6534,7 +6537,7 @@
       <c r="AI140" s="32"/>
       <c r="AJ140" s="32"/>
     </row>
-    <row r="141" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D141" s="32"/>
       <c r="E141" s="32"/>
       <c r="F141" s="32"/>
@@ -6569,7 +6572,7 @@
       <c r="AI141" s="32"/>
       <c r="AJ141" s="32"/>
     </row>
-    <row r="142" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D142" s="32"/>
       <c r="E142" s="32"/>
       <c r="F142" s="32"/>
@@ -6604,7 +6607,7 @@
       <c r="AI142" s="32"/>
       <c r="AJ142" s="32"/>
     </row>
-    <row r="143" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D143" s="32"/>
       <c r="E143" s="32"/>
       <c r="F143" s="32"/>
@@ -6639,7 +6642,7 @@
       <c r="AI143" s="32"/>
       <c r="AJ143" s="32"/>
     </row>
-    <row r="144" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D144" s="32"/>
       <c r="E144" s="32"/>
       <c r="F144" s="32"/>
@@ -6674,7 +6677,7 @@
       <c r="AI144" s="32"/>
       <c r="AJ144" s="32"/>
     </row>
-    <row r="145" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D145" s="32"/>
       <c r="E145" s="32"/>
       <c r="F145" s="32"/>
@@ -6709,7 +6712,7 @@
       <c r="AI145" s="32"/>
       <c r="AJ145" s="32"/>
     </row>
-    <row r="146" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D146" s="32"/>
       <c r="E146" s="32"/>
       <c r="F146" s="32"/>
@@ -6744,7 +6747,7 @@
       <c r="AI146" s="32"/>
       <c r="AJ146" s="32"/>
     </row>
-    <row r="147" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D147" s="32"/>
       <c r="E147" s="32"/>
       <c r="F147" s="32"/>
@@ -6779,7 +6782,7 @@
       <c r="AI147" s="32"/>
       <c r="AJ147" s="32"/>
     </row>
-    <row r="148" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D148" s="32"/>
       <c r="E148" s="32"/>
       <c r="F148" s="32"/>
@@ -6814,7 +6817,7 @@
       <c r="AI148" s="32"/>
       <c r="AJ148" s="32"/>
     </row>
-    <row r="149" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D149" s="32"/>
       <c r="E149" s="32"/>
       <c r="F149" s="32"/>
@@ -6849,7 +6852,7 @@
       <c r="AI149" s="32"/>
       <c r="AJ149" s="32"/>
     </row>
-    <row r="150" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D150" s="32"/>
       <c r="E150" s="32"/>
       <c r="F150" s="32"/>
@@ -6884,7 +6887,7 @@
       <c r="AI150" s="32"/>
       <c r="AJ150" s="32"/>
     </row>
-    <row r="151" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D151" s="32"/>
       <c r="E151" s="32"/>
       <c r="F151" s="32"/>
@@ -6919,7 +6922,7 @@
       <c r="AI151" s="32"/>
       <c r="AJ151" s="32"/>
     </row>
-    <row r="152" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D152" s="32"/>
       <c r="E152" s="32"/>
       <c r="F152" s="32"/>
@@ -6954,7 +6957,7 @@
       <c r="AI152" s="32"/>
       <c r="AJ152" s="32"/>
     </row>
-    <row r="153" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D153" s="32"/>
       <c r="E153" s="32"/>
       <c r="F153" s="32"/>
@@ -6989,7 +6992,7 @@
       <c r="AI153" s="32"/>
       <c r="AJ153" s="32"/>
     </row>
-    <row r="154" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D154" s="32"/>
       <c r="E154" s="32"/>
       <c r="F154" s="32"/>
@@ -7024,7 +7027,7 @@
       <c r="AI154" s="32"/>
       <c r="AJ154" s="32"/>
     </row>
-    <row r="155" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D155" s="32"/>
       <c r="E155" s="32"/>
       <c r="F155" s="32"/>
@@ -7059,7 +7062,7 @@
       <c r="AI155" s="32"/>
       <c r="AJ155" s="32"/>
     </row>
-    <row r="156" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D156" s="32"/>
       <c r="E156" s="32"/>
       <c r="F156" s="32"/>
@@ -7094,7 +7097,7 @@
       <c r="AI156" s="32"/>
       <c r="AJ156" s="32"/>
     </row>
-    <row r="157" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D157" s="32"/>
       <c r="E157" s="32"/>
       <c r="F157" s="32"/>
@@ -7129,7 +7132,7 @@
       <c r="AI157" s="32"/>
       <c r="AJ157" s="32"/>
     </row>
-    <row r="158" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D158" s="32"/>
       <c r="E158" s="32"/>
       <c r="F158" s="32"/>
@@ -7164,7 +7167,7 @@
       <c r="AI158" s="32"/>
       <c r="AJ158" s="32"/>
     </row>
-    <row r="159" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D159" s="32"/>
       <c r="E159" s="32"/>
       <c r="F159" s="32"/>
@@ -7199,7 +7202,7 @@
       <c r="AI159" s="32"/>
       <c r="AJ159" s="32"/>
     </row>
-    <row r="160" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D160" s="32"/>
       <c r="E160" s="32"/>
       <c r="F160" s="32"/>
@@ -7234,7 +7237,7 @@
       <c r="AI160" s="32"/>
       <c r="AJ160" s="32"/>
     </row>
-    <row r="161" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D161" s="32"/>
       <c r="E161" s="32"/>
       <c r="F161" s="32"/>
@@ -7269,7 +7272,7 @@
       <c r="AI161" s="32"/>
       <c r="AJ161" s="32"/>
     </row>
-    <row r="162" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D162" s="32"/>
       <c r="E162" s="32"/>
       <c r="F162" s="32"/>
@@ -7304,7 +7307,7 @@
       <c r="AI162" s="32"/>
       <c r="AJ162" s="32"/>
     </row>
-    <row r="163" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D163" s="32"/>
       <c r="E163" s="32"/>
       <c r="F163" s="32"/>
@@ -7339,7 +7342,7 @@
       <c r="AI163" s="32"/>
       <c r="AJ163" s="32"/>
     </row>
-    <row r="164" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D164" s="32"/>
       <c r="E164" s="32"/>
       <c r="F164" s="32"/>
@@ -7374,7 +7377,7 @@
       <c r="AI164" s="32"/>
       <c r="AJ164" s="32"/>
     </row>
-    <row r="165" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D165" s="32"/>
       <c r="E165" s="32"/>
       <c r="F165" s="32"/>
@@ -7409,7 +7412,7 @@
       <c r="AI165" s="32"/>
       <c r="AJ165" s="32"/>
     </row>
-    <row r="166" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D166" s="32"/>
       <c r="E166" s="32"/>
       <c r="F166" s="32"/>
@@ -7444,7 +7447,7 @@
       <c r="AI166" s="32"/>
       <c r="AJ166" s="32"/>
     </row>
-    <row r="167" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D167" s="32"/>
       <c r="E167" s="32"/>
       <c r="F167" s="32"/>
@@ -7479,7 +7482,7 @@
       <c r="AI167" s="32"/>
       <c r="AJ167" s="32"/>
     </row>
-    <row r="168" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D168" s="32"/>
       <c r="E168" s="32"/>
       <c r="F168" s="32"/>
@@ -7514,7 +7517,7 @@
       <c r="AI168" s="32"/>
       <c r="AJ168" s="32"/>
     </row>
-    <row r="169" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D169" s="32"/>
       <c r="E169" s="32"/>
       <c r="F169" s="32"/>
@@ -7549,7 +7552,7 @@
       <c r="AI169" s="32"/>
       <c r="AJ169" s="32"/>
     </row>
-    <row r="170" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D170" s="32"/>
       <c r="E170" s="32"/>
       <c r="F170" s="32"/>
@@ -7584,7 +7587,7 @@
       <c r="AI170" s="32"/>
       <c r="AJ170" s="32"/>
     </row>
-    <row r="171" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D171" s="32"/>
       <c r="E171" s="32"/>
       <c r="F171" s="32"/>
@@ -7619,7 +7622,7 @@
       <c r="AI171" s="32"/>
       <c r="AJ171" s="32"/>
     </row>
-    <row r="172" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D172" s="32"/>
       <c r="E172" s="32"/>
       <c r="F172" s="32"/>
@@ -7654,7 +7657,7 @@
       <c r="AI172" s="32"/>
       <c r="AJ172" s="32"/>
     </row>
-    <row r="173" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D173" s="32"/>
       <c r="E173" s="32"/>
       <c r="F173" s="32"/>
@@ -7689,7 +7692,7 @@
       <c r="AI173" s="32"/>
       <c r="AJ173" s="32"/>
     </row>
-    <row r="174" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D174" s="32"/>
       <c r="E174" s="32"/>
       <c r="F174" s="32"/>
@@ -7724,7 +7727,7 @@
       <c r="AI174" s="32"/>
       <c r="AJ174" s="32"/>
     </row>
-    <row r="175" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D175" s="32"/>
       <c r="E175" s="32"/>
       <c r="F175" s="32"/>
@@ -7759,7 +7762,7 @@
       <c r="AI175" s="32"/>
       <c r="AJ175" s="32"/>
     </row>
-    <row r="176" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D176" s="32"/>
       <c r="E176" s="32"/>
       <c r="F176" s="32"/>
@@ -7794,7 +7797,7 @@
       <c r="AI176" s="32"/>
       <c r="AJ176" s="32"/>
     </row>
-    <row r="177" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D177" s="32"/>
       <c r="E177" s="32"/>
       <c r="F177" s="32"/>
@@ -7829,7 +7832,7 @@
       <c r="AI177" s="32"/>
       <c r="AJ177" s="32"/>
     </row>
-    <row r="178" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D178" s="32"/>
       <c r="E178" s="32"/>
       <c r="F178" s="32"/>
@@ -7864,7 +7867,7 @@
       <c r="AI178" s="32"/>
       <c r="AJ178" s="32"/>
     </row>
-    <row r="179" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D179" s="32"/>
       <c r="E179" s="32"/>
       <c r="F179" s="32"/>
@@ -7899,7 +7902,7 @@
       <c r="AI179" s="32"/>
       <c r="AJ179" s="32"/>
     </row>
-    <row r="180" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D180" s="32"/>
       <c r="E180" s="32"/>
       <c r="F180" s="32"/>
@@ -7934,7 +7937,7 @@
       <c r="AI180" s="32"/>
       <c r="AJ180" s="32"/>
     </row>
-    <row r="181" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D181" s="32"/>
       <c r="E181" s="32"/>
       <c r="F181" s="32"/>
@@ -7969,7 +7972,7 @@
       <c r="AI181" s="32"/>
       <c r="AJ181" s="32"/>
     </row>
-    <row r="182" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D182" s="32"/>
       <c r="E182" s="32"/>
       <c r="F182" s="32"/>
@@ -8004,7 +8007,7 @@
       <c r="AI182" s="32"/>
       <c r="AJ182" s="32"/>
     </row>
-    <row r="183" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D183" s="32"/>
       <c r="E183" s="32"/>
       <c r="F183" s="32"/>
@@ -8039,7 +8042,7 @@
       <c r="AI183" s="32"/>
       <c r="AJ183" s="32"/>
     </row>
-    <row r="184" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D184" s="32"/>
       <c r="E184" s="32"/>
       <c r="F184" s="32"/>
@@ -8074,7 +8077,7 @@
       <c r="AI184" s="32"/>
       <c r="AJ184" s="32"/>
     </row>
-    <row r="185" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D185" s="32"/>
       <c r="E185" s="32"/>
       <c r="F185" s="32"/>
@@ -8109,7 +8112,7 @@
       <c r="AI185" s="32"/>
       <c r="AJ185" s="32"/>
     </row>
-    <row r="186" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D186" s="32"/>
       <c r="E186" s="32"/>
       <c r="F186" s="32"/>
@@ -8144,7 +8147,7 @@
       <c r="AI186" s="32"/>
       <c r="AJ186" s="32"/>
     </row>
-    <row r="187" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D187" s="32"/>
       <c r="E187" s="32"/>
       <c r="F187" s="32"/>
@@ -8179,7 +8182,7 @@
       <c r="AI187" s="32"/>
       <c r="AJ187" s="32"/>
     </row>
-    <row r="188" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D188" s="32"/>
       <c r="E188" s="32"/>
       <c r="F188" s="32"/>
@@ -8214,7 +8217,7 @@
       <c r="AI188" s="32"/>
       <c r="AJ188" s="32"/>
     </row>
-    <row r="189" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D189" s="32"/>
       <c r="E189" s="32"/>
       <c r="F189" s="32"/>
@@ -8249,7 +8252,7 @@
       <c r="AI189" s="32"/>
       <c r="AJ189" s="32"/>
     </row>
-    <row r="190" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D190" s="32"/>
       <c r="E190" s="32"/>
       <c r="F190" s="32"/>
@@ -8284,7 +8287,7 @@
       <c r="AI190" s="32"/>
       <c r="AJ190" s="32"/>
     </row>
-    <row r="191" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D191" s="32"/>
       <c r="E191" s="32"/>
       <c r="F191" s="32"/>
@@ -8319,7 +8322,7 @@
       <c r="AI191" s="32"/>
       <c r="AJ191" s="32"/>
     </row>
-    <row r="192" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D192" s="32"/>
       <c r="E192" s="32"/>
       <c r="F192" s="32"/>
@@ -8354,7 +8357,7 @@
       <c r="AI192" s="32"/>
       <c r="AJ192" s="32"/>
     </row>
-    <row r="193" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D193" s="32"/>
       <c r="E193" s="32"/>
       <c r="F193" s="32"/>
@@ -8404,7 +8407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$E3=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8417,38 +8420,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E54924-6789-4DF7-9DA2-273742F551FE}">
   <dimension ref="A1:CR375"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScale="53" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="17.28515625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="12" customWidth="1"/>
-    <col min="8" max="18" width="11.5703125" style="12"/>
-    <col min="19" max="19" width="3.5703125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="12" customWidth="1"/>
-    <col min="21" max="31" width="11.5703125" style="12"/>
-    <col min="32" max="32" width="3.5703125" style="12" customWidth="1"/>
-    <col min="33" max="44" width="11.5703125" style="12"/>
-    <col min="45" max="45" width="3.5703125" style="12" customWidth="1"/>
-    <col min="46" max="57" width="11.5703125" style="12"/>
-    <col min="58" max="58" width="3.5703125" style="12" customWidth="1"/>
-    <col min="59" max="70" width="11.5703125" style="12"/>
-    <col min="71" max="71" width="3.5703125" style="12" customWidth="1"/>
-    <col min="72" max="83" width="11.5703125" style="12"/>
-    <col min="84" max="84" width="3.5703125" style="12" customWidth="1"/>
-    <col min="85" max="16384" width="11.5703125" style="12"/>
+    <col min="1" max="4" width="17.26953125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="17.26953125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="12" customWidth="1"/>
+    <col min="8" max="18" width="11.54296875" style="12"/>
+    <col min="19" max="19" width="3.54296875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" style="12" customWidth="1"/>
+    <col min="21" max="31" width="11.54296875" style="12"/>
+    <col min="32" max="32" width="3.54296875" style="12" customWidth="1"/>
+    <col min="33" max="44" width="11.54296875" style="12"/>
+    <col min="45" max="45" width="3.54296875" style="12" customWidth="1"/>
+    <col min="46" max="57" width="11.54296875" style="12"/>
+    <col min="58" max="58" width="3.54296875" style="12" customWidth="1"/>
+    <col min="59" max="70" width="11.54296875" style="12"/>
+    <col min="71" max="71" width="3.54296875" style="12" customWidth="1"/>
+    <col min="72" max="83" width="11.54296875" style="12"/>
+    <col min="84" max="84" width="3.54296875" style="12" customWidth="1"/>
+    <col min="85" max="16384" width="11.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="85.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+    <row r="1" spans="1:96" ht="85.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="51" t="s">
         <v>14</v>
       </c>
@@ -8464,20 +8467,20 @@
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="18"/>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
       <c r="AF1" s="18"/>
       <c r="AG1" s="51" t="s">
         <v>16</v>
@@ -8554,21 +8557,21 @@
       <c r="CQ1" s="51"/>
       <c r="CR1" s="51"/>
     </row>
-    <row r="2" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="42"/>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="50">
@@ -8683,17 +8686,17 @@
       <c r="CQ2" s="50"/>
       <c r="CR2" s="50"/>
     </row>
-    <row r="3" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="54"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <f>IF(Projektübersicht!D3="","",Projektübersicht!D3)</f>
         <v>1</v>
@@ -9102,7 +9105,7 @@
       <c r="CQ4" s="20"/>
       <c r="CR4" s="20"/>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="str">
         <f>IF(Projektübersicht!D4="","",Projektübersicht!D4)</f>
         <v/>
@@ -9251,7 +9254,7 @@
       <c r="CQ5" s="20"/>
       <c r="CR5" s="20"/>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="str">
         <f>IF(Projektübersicht!D5="","",Projektübersicht!D5)</f>
         <v/>
@@ -9400,7 +9403,7 @@
       <c r="CQ6" s="20"/>
       <c r="CR6" s="20"/>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="str">
         <f>IF(Projektübersicht!D6="","",Projektübersicht!D6)</f>
         <v/>
@@ -9549,7 +9552,7 @@
       <c r="CQ7" s="20"/>
       <c r="CR7" s="20"/>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="str">
         <f>IF(Projektübersicht!D7="","",Projektübersicht!D7)</f>
         <v/>
@@ -9698,7 +9701,7 @@
       <c r="CQ8" s="20"/>
       <c r="CR8" s="20"/>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="str">
         <f>IF(Projektübersicht!D8="","",Projektübersicht!D8)</f>
         <v/>
@@ -9847,7 +9850,7 @@
       <c r="CQ9" s="20"/>
       <c r="CR9" s="20"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="str">
         <f>IF(Projektübersicht!D9="","",Projektübersicht!D9)</f>
         <v/>
@@ -9876,7 +9879,9 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="N10" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -9996,7 +10001,7 @@
       <c r="CQ10" s="20"/>
       <c r="CR10" s="20"/>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="str">
         <f>IF(Projektübersicht!D10="","",Projektübersicht!D10)</f>
         <v/>
@@ -10145,7 +10150,7 @@
       <c r="CQ11" s="20"/>
       <c r="CR11" s="20"/>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="str">
         <f>IF(Projektübersicht!D11="","",Projektübersicht!D11)</f>
         <v/>
@@ -10294,7 +10299,7 @@
       <c r="CQ12" s="20"/>
       <c r="CR12" s="20"/>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="str">
         <f>IF(Projektübersicht!D12="","",Projektübersicht!D12)</f>
         <v/>
@@ -10443,7 +10448,7 @@
       <c r="CQ13" s="20"/>
       <c r="CR13" s="20"/>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="str">
         <f>IF(Projektübersicht!D13="","",Projektübersicht!D13)</f>
         <v/>
@@ -10592,7 +10597,7 @@
       <c r="CQ14" s="20"/>
       <c r="CR14" s="20"/>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="str">
         <f>IF(Projektübersicht!D14="","",Projektübersicht!D14)</f>
         <v/>
@@ -10741,7 +10746,7 @@
       <c r="CQ15" s="20"/>
       <c r="CR15" s="20"/>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="str">
         <f>IF(Projektübersicht!D15="","",Projektübersicht!D15)</f>
         <v/>
@@ -10890,7 +10895,7 @@
       <c r="CQ16" s="20"/>
       <c r="CR16" s="20"/>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="str">
         <f>IF(Projektübersicht!D16="","",Projektübersicht!D16)</f>
         <v/>
@@ -11039,7 +11044,7 @@
       <c r="CQ17" s="20"/>
       <c r="CR17" s="20"/>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="str">
         <f>IF(Projektübersicht!D17="","",Projektübersicht!D17)</f>
         <v/>
@@ -11188,7 +11193,7 @@
       <c r="CQ18" s="20"/>
       <c r="CR18" s="20"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="str">
         <f>IF(Projektübersicht!D18="","",Projektübersicht!D18)</f>
         <v/>
@@ -11337,7 +11342,7 @@
       <c r="CQ19" s="20"/>
       <c r="CR19" s="20"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="str">
         <f>IF(Projektübersicht!D19="","",Projektübersicht!D19)</f>
         <v/>
@@ -11486,7 +11491,7 @@
       <c r="CQ20" s="20"/>
       <c r="CR20" s="20"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="str">
         <f>IF(Projektübersicht!D20="","",Projektübersicht!D20)</f>
         <v/>
@@ -11635,7 +11640,7 @@
       <c r="CQ21" s="20"/>
       <c r="CR21" s="20"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="str">
         <f>IF(Projektübersicht!D21="","",Projektübersicht!D21)</f>
         <v/>
@@ -11784,7 +11789,7 @@
       <c r="CQ22" s="20"/>
       <c r="CR22" s="20"/>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="str">
         <f>IF(Projektübersicht!D22="","",Projektübersicht!D22)</f>
         <v/>
@@ -11933,7 +11938,7 @@
       <c r="CQ23" s="20"/>
       <c r="CR23" s="20"/>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="str">
         <f>IF(Projektübersicht!D23="","",Projektübersicht!D23)</f>
         <v/>
@@ -12082,7 +12087,7 @@
       <c r="CQ24" s="20"/>
       <c r="CR24" s="20"/>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="str">
         <f>IF(Projektübersicht!D24="","",Projektübersicht!D24)</f>
         <v/>
@@ -12231,7 +12236,7 @@
       <c r="CQ25" s="20"/>
       <c r="CR25" s="20"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="str">
         <f>IF(Projektübersicht!D25="","",Projektübersicht!D25)</f>
         <v/>
@@ -12380,7 +12385,7 @@
       <c r="CQ26" s="20"/>
       <c r="CR26" s="20"/>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="str">
         <f>IF(Projektübersicht!D26="","",Projektübersicht!D26)</f>
         <v/>
@@ -12529,7 +12534,7 @@
       <c r="CQ27" s="20"/>
       <c r="CR27" s="20"/>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="str">
         <f>IF(Projektübersicht!D27="","",Projektübersicht!D27)</f>
         <v/>
@@ -12678,7 +12683,7 @@
       <c r="CQ28" s="20"/>
       <c r="CR28" s="20"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="str">
         <f>IF(Projektübersicht!D28="","",Projektübersicht!D28)</f>
         <v/>
@@ -12827,7 +12832,7 @@
       <c r="CQ29" s="20"/>
       <c r="CR29" s="20"/>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="str">
         <f>IF(Projektübersicht!D29="","",Projektübersicht!D29)</f>
         <v/>
@@ -12976,7 +12981,7 @@
       <c r="CQ30" s="20"/>
       <c r="CR30" s="20"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="str">
         <f>IF(Projektübersicht!D30="","",Projektübersicht!D30)</f>
         <v/>
@@ -13125,7 +13130,7 @@
       <c r="CQ31" s="20"/>
       <c r="CR31" s="20"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="str">
         <f>IF(Projektübersicht!D31="","",Projektübersicht!D31)</f>
         <v/>
@@ -13274,7 +13279,7 @@
       <c r="CQ32" s="20"/>
       <c r="CR32" s="20"/>
     </row>
-    <row r="33" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="str">
         <f>IF(Projektübersicht!D32="","",Projektübersicht!D32)</f>
         <v/>
@@ -13423,7 +13428,7 @@
       <c r="CQ33" s="20"/>
       <c r="CR33" s="20"/>
     </row>
-    <row r="34" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -13521,7 +13526,7 @@
       <c r="CQ34" s="6"/>
       <c r="CR34" s="6"/>
     </row>
-    <row r="35" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -13619,7 +13624,7 @@
       <c r="CQ35" s="6"/>
       <c r="CR35" s="6"/>
     </row>
-    <row r="36" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -13717,7 +13722,7 @@
       <c r="CQ36" s="6"/>
       <c r="CR36" s="6"/>
     </row>
-    <row r="37" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -13815,7 +13820,7 @@
       <c r="CQ37" s="6"/>
       <c r="CR37" s="6"/>
     </row>
-    <row r="38" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -13913,7 +13918,7 @@
       <c r="CQ38" s="6"/>
       <c r="CR38" s="6"/>
     </row>
-    <row r="39" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -14011,21 +14016,21 @@
       <c r="CQ39" s="6"/>
       <c r="CR39" s="6"/>
     </row>
-    <row r="40" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="52">
@@ -14140,15 +14145,15 @@
       <c r="CQ40" s="52"/>
       <c r="CR40" s="52"/>
     </row>
-    <row r="41" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="54"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="5" t="s">
         <v>24</v>
       </c>
@@ -14408,7 +14413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <f>A4</f>
         <v>1</v>
@@ -14557,7 +14562,7 @@
       <c r="CQ42" s="20"/>
       <c r="CR42" s="20"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="str">
         <f>A5</f>
         <v/>
@@ -14706,7 +14711,7 @@
       <c r="CQ43" s="20"/>
       <c r="CR43" s="20"/>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="str">
         <f t="shared" ref="A44:F44" si="27">A6</f>
         <v/>
@@ -14855,7 +14860,7 @@
       <c r="CQ44" s="20"/>
       <c r="CR44" s="20"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="str">
         <f t="shared" ref="A45:F45" si="28">A7</f>
         <v/>
@@ -15004,7 +15009,7 @@
       <c r="CQ45" s="20"/>
       <c r="CR45" s="20"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="str">
         <f t="shared" ref="A46:F46" si="29">A8</f>
         <v/>
@@ -15153,7 +15158,7 @@
       <c r="CQ46" s="20"/>
       <c r="CR46" s="20"/>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="str">
         <f t="shared" ref="A47:F47" si="30">A9</f>
         <v/>
@@ -15302,7 +15307,7 @@
       <c r="CQ47" s="20"/>
       <c r="CR47" s="20"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="str">
         <f t="shared" ref="A48:F48" si="31">A10</f>
         <v/>
@@ -15451,7 +15456,7 @@
       <c r="CQ48" s="20"/>
       <c r="CR48" s="20"/>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="str">
         <f t="shared" ref="A49:F49" si="32">A11</f>
         <v/>
@@ -15600,7 +15605,7 @@
       <c r="CQ49" s="20"/>
       <c r="CR49" s="20"/>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="str">
         <f t="shared" ref="A50:F50" si="33">A12</f>
         <v/>
@@ -15749,7 +15754,7 @@
       <c r="CQ50" s="20"/>
       <c r="CR50" s="20"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="str">
         <f t="shared" ref="A51:F51" si="34">A13</f>
         <v/>
@@ -15898,7 +15903,7 @@
       <c r="CQ51" s="20"/>
       <c r="CR51" s="20"/>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="str">
         <f t="shared" ref="A52:F52" si="35">A14</f>
         <v/>
@@ -16047,7 +16052,7 @@
       <c r="CQ52" s="20"/>
       <c r="CR52" s="20"/>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="str">
         <f t="shared" ref="A53:F53" si="36">A15</f>
         <v/>
@@ -16196,7 +16201,7 @@
       <c r="CQ53" s="20"/>
       <c r="CR53" s="20"/>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="str">
         <f t="shared" ref="A54:F54" si="37">A16</f>
         <v/>
@@ -16345,7 +16350,7 @@
       <c r="CQ54" s="20"/>
       <c r="CR54" s="20"/>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="str">
         <f t="shared" ref="A55:F55" si="38">A17</f>
         <v/>
@@ -16494,7 +16499,7 @@
       <c r="CQ55" s="20"/>
       <c r="CR55" s="20"/>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="str">
         <f t="shared" ref="A56:F56" si="39">A18</f>
         <v/>
@@ -16643,7 +16648,7 @@
       <c r="CQ56" s="20"/>
       <c r="CR56" s="20"/>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="str">
         <f t="shared" ref="A57:F57" si="40">A19</f>
         <v/>
@@ -16792,7 +16797,7 @@
       <c r="CQ57" s="20"/>
       <c r="CR57" s="20"/>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="str">
         <f t="shared" ref="A58:F58" si="41">A20</f>
         <v/>
@@ -16941,7 +16946,7 @@
       <c r="CQ58" s="20"/>
       <c r="CR58" s="20"/>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="str">
         <f t="shared" ref="A59:F59" si="42">A21</f>
         <v/>
@@ -17090,7 +17095,7 @@
       <c r="CQ59" s="20"/>
       <c r="CR59" s="20"/>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="str">
         <f t="shared" ref="A60:F60" si="43">A22</f>
         <v/>
@@ -17239,7 +17244,7 @@
       <c r="CQ60" s="20"/>
       <c r="CR60" s="20"/>
     </row>
-    <row r="61" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="str">
         <f t="shared" ref="A61:F61" si="44">A23</f>
         <v/>
@@ -17388,7 +17393,7 @@
       <c r="CQ61" s="20"/>
       <c r="CR61" s="20"/>
     </row>
-    <row r="62" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="str">
         <f t="shared" ref="A62:F62" si="45">A24</f>
         <v/>
@@ -17537,7 +17542,7 @@
       <c r="CQ62" s="20"/>
       <c r="CR62" s="20"/>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="str">
         <f t="shared" ref="A63:F63" si="46">A25</f>
         <v/>
@@ -17686,7 +17691,7 @@
       <c r="CQ63" s="20"/>
       <c r="CR63" s="20"/>
     </row>
-    <row r="64" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="str">
         <f t="shared" ref="A64:F64" si="47">A26</f>
         <v/>
@@ -17835,7 +17840,7 @@
       <c r="CQ64" s="20"/>
       <c r="CR64" s="20"/>
     </row>
-    <row r="65" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="str">
         <f t="shared" ref="A65:F65" si="48">A27</f>
         <v/>
@@ -17984,7 +17989,7 @@
       <c r="CQ65" s="20"/>
       <c r="CR65" s="20"/>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="str">
         <f t="shared" ref="A66:F66" si="49">A28</f>
         <v/>
@@ -18133,7 +18138,7 @@
       <c r="CQ66" s="20"/>
       <c r="CR66" s="20"/>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="str">
         <f t="shared" ref="A67:F67" si="50">A29</f>
         <v/>
@@ -18282,7 +18287,7 @@
       <c r="CQ67" s="20"/>
       <c r="CR67" s="20"/>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="str">
         <f t="shared" ref="A68:F68" si="51">A30</f>
         <v/>
@@ -18431,7 +18436,7 @@
       <c r="CQ68" s="20"/>
       <c r="CR68" s="20"/>
     </row>
-    <row r="69" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="str">
         <f t="shared" ref="A69:F69" si="52">A31</f>
         <v/>
@@ -18580,7 +18585,7 @@
       <c r="CQ69" s="20"/>
       <c r="CR69" s="20"/>
     </row>
-    <row r="70" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="str">
         <f t="shared" ref="A70:F70" si="53">A32</f>
         <v/>
@@ -18729,7 +18734,7 @@
       <c r="CQ70" s="20"/>
       <c r="CR70" s="20"/>
     </row>
-    <row r="71" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="str">
         <f t="shared" ref="A71:F71" si="54">A33</f>
         <v/>
@@ -18878,7 +18883,7 @@
       <c r="CQ71" s="20"/>
       <c r="CR71" s="20"/>
     </row>
-    <row r="72" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -18976,7 +18981,7 @@
       <c r="CQ72" s="6"/>
       <c r="CR72" s="6"/>
     </row>
-    <row r="73" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="16"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -19074,7 +19079,7 @@
       <c r="CQ73" s="6"/>
       <c r="CR73" s="6"/>
     </row>
-    <row r="74" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="16"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -19172,7 +19177,7 @@
       <c r="CQ74" s="6"/>
       <c r="CR74" s="6"/>
     </row>
-    <row r="75" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="16"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -19270,7 +19275,7 @@
       <c r="CQ75" s="6"/>
       <c r="CR75" s="6"/>
     </row>
-    <row r="76" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -19368,7 +19373,7 @@
       <c r="CQ76" s="6"/>
       <c r="CR76" s="6"/>
     </row>
-    <row r="77" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -19466,21 +19471,21 @@
       <c r="CQ77" s="6"/>
       <c r="CR77" s="6"/>
     </row>
-    <row r="78" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="42"/>
-      <c r="E78" s="55" t="s">
+      <c r="E78" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="53" t="s">
+      <c r="F78" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="52">
@@ -19595,15 +19600,15 @@
       <c r="CQ78" s="52"/>
       <c r="CR78" s="52"/>
     </row>
-    <row r="79" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="43"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="54"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="5" t="s">
         <v>24</v>
       </c>
@@ -19863,7 +19868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <f>A42</f>
         <v>1</v>
@@ -20012,7 +20017,7 @@
       <c r="CQ80" s="20"/>
       <c r="CR80" s="20"/>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="str">
         <f t="shared" ref="A81:F81" si="68">A43</f>
         <v/>
@@ -20161,7 +20166,7 @@
       <c r="CQ81" s="20"/>
       <c r="CR81" s="20"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="str">
         <f t="shared" ref="A82:F82" si="70">A44</f>
         <v/>
@@ -20310,7 +20315,7 @@
       <c r="CQ82" s="20"/>
       <c r="CR82" s="20"/>
     </row>
-    <row r="83" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="str">
         <f t="shared" ref="A83:F83" si="71">A45</f>
         <v/>
@@ -20459,7 +20464,7 @@
       <c r="CQ83" s="20"/>
       <c r="CR83" s="20"/>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="str">
         <f t="shared" ref="A84:F84" si="72">A46</f>
         <v/>
@@ -20608,7 +20613,7 @@
       <c r="CQ84" s="20"/>
       <c r="CR84" s="20"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="str">
         <f t="shared" ref="A85:F85" si="73">A47</f>
         <v/>
@@ -20757,7 +20762,7 @@
       <c r="CQ85" s="20"/>
       <c r="CR85" s="20"/>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="str">
         <f t="shared" ref="A86:F86" si="74">A48</f>
         <v/>
@@ -20906,7 +20911,7 @@
       <c r="CQ86" s="20"/>
       <c r="CR86" s="20"/>
     </row>
-    <row r="87" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="str">
         <f t="shared" ref="A87:F87" si="75">A49</f>
         <v/>
@@ -21055,7 +21060,7 @@
       <c r="CQ87" s="20"/>
       <c r="CR87" s="20"/>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="str">
         <f t="shared" ref="A88:F88" si="76">A50</f>
         <v/>
@@ -21204,7 +21209,7 @@
       <c r="CQ88" s="20"/>
       <c r="CR88" s="20"/>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="str">
         <f t="shared" ref="A89:F89" si="77">A51</f>
         <v/>
@@ -21353,7 +21358,7 @@
       <c r="CQ89" s="20"/>
       <c r="CR89" s="20"/>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="str">
         <f t="shared" ref="A90:F90" si="78">A52</f>
         <v/>
@@ -21502,7 +21507,7 @@
       <c r="CQ90" s="20"/>
       <c r="CR90" s="20"/>
     </row>
-    <row r="91" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="str">
         <f t="shared" ref="A91:F91" si="79">A53</f>
         <v/>
@@ -21651,7 +21656,7 @@
       <c r="CQ91" s="20"/>
       <c r="CR91" s="20"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="str">
         <f t="shared" ref="A92:F92" si="80">A54</f>
         <v/>
@@ -21800,7 +21805,7 @@
       <c r="CQ92" s="20"/>
       <c r="CR92" s="20"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="str">
         <f t="shared" ref="A93:F93" si="81">A55</f>
         <v/>
@@ -21949,7 +21954,7 @@
       <c r="CQ93" s="20"/>
       <c r="CR93" s="20"/>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="str">
         <f t="shared" ref="A94:F94" si="82">A56</f>
         <v/>
@@ -22098,7 +22103,7 @@
       <c r="CQ94" s="20"/>
       <c r="CR94" s="20"/>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="str">
         <f t="shared" ref="A95:F95" si="83">A57</f>
         <v/>
@@ -22247,7 +22252,7 @@
       <c r="CQ95" s="20"/>
       <c r="CR95" s="20"/>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="str">
         <f t="shared" ref="A96:F96" si="84">A58</f>
         <v/>
@@ -22396,7 +22401,7 @@
       <c r="CQ96" s="20"/>
       <c r="CR96" s="20"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="str">
         <f t="shared" ref="A97:F97" si="85">A59</f>
         <v/>
@@ -22545,7 +22550,7 @@
       <c r="CQ97" s="20"/>
       <c r="CR97" s="20"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="str">
         <f t="shared" ref="A98:F98" si="86">A60</f>
         <v/>
@@ -22694,7 +22699,7 @@
       <c r="CQ98" s="20"/>
       <c r="CR98" s="20"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="str">
         <f t="shared" ref="A99:F99" si="87">A61</f>
         <v/>
@@ -22843,7 +22848,7 @@
       <c r="CQ99" s="20"/>
       <c r="CR99" s="20"/>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="str">
         <f t="shared" ref="A100:F100" si="88">A62</f>
         <v/>
@@ -22992,7 +22997,7 @@
       <c r="CQ100" s="20"/>
       <c r="CR100" s="20"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="str">
         <f t="shared" ref="A101:F101" si="89">A63</f>
         <v/>
@@ -23141,7 +23146,7 @@
       <c r="CQ101" s="20"/>
       <c r="CR101" s="20"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="str">
         <f t="shared" ref="A102:F102" si="90">A64</f>
         <v/>
@@ -23290,7 +23295,7 @@
       <c r="CQ102" s="20"/>
       <c r="CR102" s="20"/>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="str">
         <f t="shared" ref="A103:F103" si="91">A65</f>
         <v/>
@@ -23439,7 +23444,7 @@
       <c r="CQ103" s="20"/>
       <c r="CR103" s="20"/>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="str">
         <f t="shared" ref="A104:F104" si="92">A66</f>
         <v/>
@@ -23588,7 +23593,7 @@
       <c r="CQ104" s="20"/>
       <c r="CR104" s="20"/>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="str">
         <f t="shared" ref="A105:F105" si="93">A67</f>
         <v/>
@@ -23737,7 +23742,7 @@
       <c r="CQ105" s="20"/>
       <c r="CR105" s="20"/>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="str">
         <f t="shared" ref="A106:F106" si="94">A68</f>
         <v/>
@@ -23886,7 +23891,7 @@
       <c r="CQ106" s="20"/>
       <c r="CR106" s="20"/>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="str">
         <f t="shared" ref="A107:F107" si="95">A69</f>
         <v/>
@@ -24035,7 +24040,7 @@
       <c r="CQ107" s="20"/>
       <c r="CR107" s="20"/>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="str">
         <f t="shared" ref="A108:F108" si="96">A70</f>
         <v/>
@@ -24184,7 +24189,7 @@
       <c r="CQ108" s="20"/>
       <c r="CR108" s="20"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="str">
         <f t="shared" ref="A109:F109" si="97">A71</f>
         <v/>
@@ -24333,7 +24338,7 @@
       <c r="CQ109" s="20"/>
       <c r="CR109" s="20"/>
     </row>
-    <row r="110" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="16"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -24431,7 +24436,7 @@
       <c r="CQ110" s="6"/>
       <c r="CR110" s="6"/>
     </row>
-    <row r="111" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="16"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -24529,7 +24534,7 @@
       <c r="CQ111" s="6"/>
       <c r="CR111" s="6"/>
     </row>
-    <row r="112" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="16"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -24627,7 +24632,7 @@
       <c r="CQ112" s="6"/>
       <c r="CR112" s="6"/>
     </row>
-    <row r="113" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="16"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -24725,7 +24730,7 @@
       <c r="CQ113" s="6"/>
       <c r="CR113" s="6"/>
     </row>
-    <row r="114" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="16"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -24823,7 +24828,7 @@
       <c r="CQ114" s="6"/>
       <c r="CR114" s="6"/>
     </row>
-    <row r="115" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="16"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -24921,21 +24926,21 @@
       <c r="CQ115" s="6"/>
       <c r="CR115" s="6"/>
     </row>
-    <row r="116" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="57" t="s">
+      <c r="B116" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="C116" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="42"/>
-      <c r="E116" s="55" t="s">
+      <c r="E116" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="53" t="s">
+      <c r="F116" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G116" s="52">
@@ -25050,15 +25055,15 @@
       <c r="CQ116" s="52"/>
       <c r="CR116" s="52"/>
     </row>
-    <row r="117" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="58"/>
-      <c r="C117" s="58"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="43"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="54"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="59"/>
       <c r="G117" s="5" t="s">
         <v>24</v>
       </c>
@@ -25318,7 +25323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <f>A80</f>
         <v>1</v>
@@ -25467,7 +25472,7 @@
       <c r="CQ118" s="20"/>
       <c r="CR118" s="20"/>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="str">
         <f t="shared" ref="A119:F119" si="111">A81</f>
         <v/>
@@ -25616,7 +25621,7 @@
       <c r="CQ119" s="20"/>
       <c r="CR119" s="20"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="str">
         <f t="shared" ref="A120:F120" si="113">A82</f>
         <v/>
@@ -25765,7 +25770,7 @@
       <c r="CQ120" s="20"/>
       <c r="CR120" s="20"/>
     </row>
-    <row r="121" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="str">
         <f t="shared" ref="A121:F121" si="114">A83</f>
         <v/>
@@ -25914,7 +25919,7 @@
       <c r="CQ121" s="20"/>
       <c r="CR121" s="20"/>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="str">
         <f t="shared" ref="A122:F122" si="115">A84</f>
         <v/>
@@ -26063,7 +26068,7 @@
       <c r="CQ122" s="20"/>
       <c r="CR122" s="20"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="str">
         <f t="shared" ref="A123:F123" si="116">A85</f>
         <v/>
@@ -26212,7 +26217,7 @@
       <c r="CQ123" s="20"/>
       <c r="CR123" s="20"/>
     </row>
-    <row r="124" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="str">
         <f t="shared" ref="A124:F124" si="117">A86</f>
         <v/>
@@ -26361,7 +26366,7 @@
       <c r="CQ124" s="20"/>
       <c r="CR124" s="20"/>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="str">
         <f t="shared" ref="A125:F125" si="118">A87</f>
         <v/>
@@ -26510,7 +26515,7 @@
       <c r="CQ125" s="20"/>
       <c r="CR125" s="20"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="str">
         <f t="shared" ref="A126:F126" si="119">A88</f>
         <v/>
@@ -26659,7 +26664,7 @@
       <c r="CQ126" s="20"/>
       <c r="CR126" s="20"/>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="str">
         <f t="shared" ref="A127:F127" si="120">A89</f>
         <v/>
@@ -26808,7 +26813,7 @@
       <c r="CQ127" s="20"/>
       <c r="CR127" s="20"/>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="str">
         <f t="shared" ref="A128:F128" si="121">A90</f>
         <v/>
@@ -26957,7 +26962,7 @@
       <c r="CQ128" s="20"/>
       <c r="CR128" s="20"/>
     </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="str">
         <f t="shared" ref="A129:F129" si="122">A91</f>
         <v/>
@@ -27106,7 +27111,7 @@
       <c r="CQ129" s="20"/>
       <c r="CR129" s="20"/>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="str">
         <f t="shared" ref="A130:F130" si="123">A92</f>
         <v/>
@@ -27255,7 +27260,7 @@
       <c r="CQ130" s="20"/>
       <c r="CR130" s="20"/>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="str">
         <f t="shared" ref="A131:F131" si="124">A93</f>
         <v/>
@@ -27404,7 +27409,7 @@
       <c r="CQ131" s="20"/>
       <c r="CR131" s="20"/>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="str">
         <f t="shared" ref="A132:F132" si="125">A94</f>
         <v/>
@@ -27553,7 +27558,7 @@
       <c r="CQ132" s="20"/>
       <c r="CR132" s="20"/>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="str">
         <f t="shared" ref="A133:F133" si="126">A95</f>
         <v/>
@@ -27702,7 +27707,7 @@
       <c r="CQ133" s="20"/>
       <c r="CR133" s="20"/>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="str">
         <f t="shared" ref="A134:F134" si="127">A96</f>
         <v/>
@@ -27851,7 +27856,7 @@
       <c r="CQ134" s="20"/>
       <c r="CR134" s="20"/>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="str">
         <f t="shared" ref="A135:F135" si="128">A97</f>
         <v/>
@@ -28000,7 +28005,7 @@
       <c r="CQ135" s="20"/>
       <c r="CR135" s="20"/>
     </row>
-    <row r="136" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="str">
         <f t="shared" ref="A136:F136" si="129">A98</f>
         <v/>
@@ -28149,7 +28154,7 @@
       <c r="CQ136" s="20"/>
       <c r="CR136" s="20"/>
     </row>
-    <row r="137" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="str">
         <f t="shared" ref="A137:F137" si="130">A99</f>
         <v/>
@@ -28298,7 +28303,7 @@
       <c r="CQ137" s="20"/>
       <c r="CR137" s="20"/>
     </row>
-    <row r="138" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="str">
         <f t="shared" ref="A138:F138" si="131">A100</f>
         <v/>
@@ -28447,7 +28452,7 @@
       <c r="CQ138" s="20"/>
       <c r="CR138" s="20"/>
     </row>
-    <row r="139" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="str">
         <f t="shared" ref="A139:F139" si="132">A101</f>
         <v/>
@@ -28596,7 +28601,7 @@
       <c r="CQ139" s="20"/>
       <c r="CR139" s="20"/>
     </row>
-    <row r="140" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A140" s="5" t="str">
         <f t="shared" ref="A140:F140" si="133">A102</f>
         <v/>
@@ -28745,7 +28750,7 @@
       <c r="CQ140" s="20"/>
       <c r="CR140" s="20"/>
     </row>
-    <row r="141" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="str">
         <f t="shared" ref="A141:F141" si="134">A103</f>
         <v/>
@@ -28894,7 +28899,7 @@
       <c r="CQ141" s="20"/>
       <c r="CR141" s="20"/>
     </row>
-    <row r="142" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="str">
         <f t="shared" ref="A142:F142" si="135">A104</f>
         <v/>
@@ -29043,7 +29048,7 @@
       <c r="CQ142" s="20"/>
       <c r="CR142" s="20"/>
     </row>
-    <row r="143" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="str">
         <f t="shared" ref="A143:F143" si="136">A105</f>
         <v/>
@@ -29192,7 +29197,7 @@
       <c r="CQ143" s="20"/>
       <c r="CR143" s="20"/>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="str">
         <f t="shared" ref="A144:F144" si="137">A106</f>
         <v/>
@@ -29341,7 +29346,7 @@
       <c r="CQ144" s="20"/>
       <c r="CR144" s="20"/>
     </row>
-    <row r="145" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="str">
         <f t="shared" ref="A145:F145" si="138">A107</f>
         <v/>
@@ -29490,7 +29495,7 @@
       <c r="CQ145" s="20"/>
       <c r="CR145" s="20"/>
     </row>
-    <row r="146" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="str">
         <f t="shared" ref="A146:F146" si="139">A108</f>
         <v/>
@@ -29639,7 +29644,7 @@
       <c r="CQ146" s="20"/>
       <c r="CR146" s="20"/>
     </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="str">
         <f t="shared" ref="A147:F147" si="140">A109</f>
         <v/>
@@ -29788,7 +29793,7 @@
       <c r="CQ147" s="20"/>
       <c r="CR147" s="20"/>
     </row>
-    <row r="148" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -29886,7 +29891,7 @@
       <c r="CQ148" s="6"/>
       <c r="CR148" s="6"/>
     </row>
-    <row r="149" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -29984,7 +29989,7 @@
       <c r="CQ149" s="6"/>
       <c r="CR149" s="6"/>
     </row>
-    <row r="150" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -30082,7 +30087,7 @@
       <c r="CQ150" s="6"/>
       <c r="CR150" s="6"/>
     </row>
-    <row r="151" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -30180,7 +30185,7 @@
       <c r="CQ151" s="6"/>
       <c r="CR151" s="6"/>
     </row>
-    <row r="152" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -30278,7 +30283,7 @@
       <c r="CQ152" s="6"/>
       <c r="CR152" s="6"/>
     </row>
-    <row r="153" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -30376,21 +30381,21 @@
       <c r="CQ153" s="6"/>
       <c r="CR153" s="6"/>
     </row>
-    <row r="154" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="57" t="s">
+      <c r="B154" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="57" t="s">
+      <c r="C154" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="42"/>
-      <c r="E154" s="55" t="s">
+      <c r="E154" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F154" s="53" t="s">
+      <c r="F154" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G154" s="52">
@@ -30505,15 +30510,15 @@
       <c r="CQ154" s="52"/>
       <c r="CR154" s="52"/>
     </row>
-    <row r="155" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="54"/>
       <c r="D155" s="43"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="54"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="59"/>
       <c r="G155" s="5" t="s">
         <v>24</v>
       </c>
@@ -30773,7 +30778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <f>A118</f>
         <v>1</v>
@@ -30922,7 +30927,7 @@
       <c r="CQ156" s="20"/>
       <c r="CR156" s="21"/>
     </row>
-    <row r="157" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="str">
         <f t="shared" ref="A157:F157" si="154">A119</f>
         <v/>
@@ -31071,7 +31076,7 @@
       <c r="CQ157" s="20"/>
       <c r="CR157" s="21"/>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="str">
         <f t="shared" ref="A158:F158" si="156">A120</f>
         <v/>
@@ -31220,7 +31225,7 @@
       <c r="CQ158" s="20"/>
       <c r="CR158" s="21"/>
     </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="str">
         <f t="shared" ref="A159:F159" si="157">A121</f>
         <v/>
@@ -31369,7 +31374,7 @@
       <c r="CQ159" s="20"/>
       <c r="CR159" s="21"/>
     </row>
-    <row r="160" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="str">
         <f t="shared" ref="A160:F160" si="158">A122</f>
         <v/>
@@ -31518,7 +31523,7 @@
       <c r="CQ160" s="20"/>
       <c r="CR160" s="21"/>
     </row>
-    <row r="161" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="str">
         <f t="shared" ref="A161:F161" si="159">A123</f>
         <v/>
@@ -31667,7 +31672,7 @@
       <c r="CQ161" s="20"/>
       <c r="CR161" s="21"/>
     </row>
-    <row r="162" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="str">
         <f t="shared" ref="A162:F162" si="160">A124</f>
         <v/>
@@ -31816,7 +31821,7 @@
       <c r="CQ162" s="20"/>
       <c r="CR162" s="21"/>
     </row>
-    <row r="163" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="str">
         <f t="shared" ref="A163:F163" si="161">A125</f>
         <v/>
@@ -31965,7 +31970,7 @@
       <c r="CQ163" s="20"/>
       <c r="CR163" s="21"/>
     </row>
-    <row r="164" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="str">
         <f t="shared" ref="A164:F164" si="162">A126</f>
         <v/>
@@ -32114,7 +32119,7 @@
       <c r="CQ164" s="20"/>
       <c r="CR164" s="21"/>
     </row>
-    <row r="165" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="str">
         <f t="shared" ref="A165:F165" si="163">A127</f>
         <v/>
@@ -32263,7 +32268,7 @@
       <c r="CQ165" s="20"/>
       <c r="CR165" s="21"/>
     </row>
-    <row r="166" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="str">
         <f t="shared" ref="A166:F166" si="164">A128</f>
         <v/>
@@ -32412,7 +32417,7 @@
       <c r="CQ166" s="20"/>
       <c r="CR166" s="21"/>
     </row>
-    <row r="167" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="str">
         <f t="shared" ref="A167:F167" si="165">A129</f>
         <v/>
@@ -32561,7 +32566,7 @@
       <c r="CQ167" s="20"/>
       <c r="CR167" s="21"/>
     </row>
-    <row r="168" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="str">
         <f t="shared" ref="A168:F168" si="166">A130</f>
         <v/>
@@ -32710,7 +32715,7 @@
       <c r="CQ168" s="20"/>
       <c r="CR168" s="21"/>
     </row>
-    <row r="169" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="str">
         <f t="shared" ref="A169:F169" si="167">A131</f>
         <v/>
@@ -32859,7 +32864,7 @@
       <c r="CQ169" s="20"/>
       <c r="CR169" s="21"/>
     </row>
-    <row r="170" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="str">
         <f t="shared" ref="A170:F170" si="168">A132</f>
         <v/>
@@ -33008,7 +33013,7 @@
       <c r="CQ170" s="20"/>
       <c r="CR170" s="21"/>
     </row>
-    <row r="171" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A171" s="5" t="str">
         <f t="shared" ref="A171:F171" si="169">A133</f>
         <v/>
@@ -33157,7 +33162,7 @@
       <c r="CQ171" s="20"/>
       <c r="CR171" s="21"/>
     </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A172" s="5" t="str">
         <f t="shared" ref="A172:F172" si="170">A134</f>
         <v/>
@@ -33306,7 +33311,7 @@
       <c r="CQ172" s="20"/>
       <c r="CR172" s="21"/>
     </row>
-    <row r="173" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A173" s="5" t="str">
         <f t="shared" ref="A173:F173" si="171">A135</f>
         <v/>
@@ -33455,7 +33460,7 @@
       <c r="CQ173" s="20"/>
       <c r="CR173" s="21"/>
     </row>
-    <row r="174" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A174" s="5" t="str">
         <f t="shared" ref="A174:F174" si="172">A136</f>
         <v/>
@@ -33604,7 +33609,7 @@
       <c r="CQ174" s="20"/>
       <c r="CR174" s="21"/>
     </row>
-    <row r="175" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A175" s="5" t="str">
         <f t="shared" ref="A175:F175" si="173">A137</f>
         <v/>
@@ -33753,7 +33758,7 @@
       <c r="CQ175" s="20"/>
       <c r="CR175" s="21"/>
     </row>
-    <row r="176" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A176" s="5" t="str">
         <f t="shared" ref="A176:F176" si="174">A138</f>
         <v/>
@@ -33902,7 +33907,7 @@
       <c r="CQ176" s="20"/>
       <c r="CR176" s="21"/>
     </row>
-    <row r="177" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A177" s="5" t="str">
         <f t="shared" ref="A177:F177" si="175">A139</f>
         <v/>
@@ -34051,7 +34056,7 @@
       <c r="CQ177" s="20"/>
       <c r="CR177" s="21"/>
     </row>
-    <row r="178" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A178" s="5" t="str">
         <f t="shared" ref="A178:F178" si="176">A140</f>
         <v/>
@@ -34200,7 +34205,7 @@
       <c r="CQ178" s="20"/>
       <c r="CR178" s="21"/>
     </row>
-    <row r="179" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A179" s="5" t="str">
         <f t="shared" ref="A179:F179" si="177">A141</f>
         <v/>
@@ -34349,7 +34354,7 @@
       <c r="CQ179" s="20"/>
       <c r="CR179" s="21"/>
     </row>
-    <row r="180" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A180" s="5" t="str">
         <f t="shared" ref="A180:F180" si="178">A142</f>
         <v/>
@@ -34498,7 +34503,7 @@
       <c r="CQ180" s="20"/>
       <c r="CR180" s="21"/>
     </row>
-    <row r="181" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="str">
         <f t="shared" ref="A181:F181" si="179">A143</f>
         <v/>
@@ -34647,7 +34652,7 @@
       <c r="CQ181" s="20"/>
       <c r="CR181" s="21"/>
     </row>
-    <row r="182" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="str">
         <f t="shared" ref="A182:F182" si="180">A144</f>
         <v/>
@@ -34796,7 +34801,7 @@
       <c r="CQ182" s="20"/>
       <c r="CR182" s="21"/>
     </row>
-    <row r="183" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="str">
         <f t="shared" ref="A183:F183" si="181">A145</f>
         <v/>
@@ -34945,7 +34950,7 @@
       <c r="CQ183" s="20"/>
       <c r="CR183" s="21"/>
     </row>
-    <row r="184" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="str">
         <f t="shared" ref="A184:F184" si="182">A146</f>
         <v/>
@@ -35094,7 +35099,7 @@
       <c r="CQ184" s="20"/>
       <c r="CR184" s="21"/>
     </row>
-    <row r="185" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A185" s="35" t="str">
         <f t="shared" ref="A185:F185" si="183">A147</f>
         <v/>
@@ -35243,7 +35248,7 @@
       <c r="CQ185" s="38"/>
       <c r="CR185" s="39"/>
     </row>
-    <row r="186" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="16"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -35341,7 +35346,7 @@
       <c r="CQ186" s="6"/>
       <c r="CR186" s="6"/>
     </row>
-    <row r="187" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="16"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -35439,7 +35444,7 @@
       <c r="CQ187" s="6"/>
       <c r="CR187" s="6"/>
     </row>
-    <row r="188" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="16"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -35537,7 +35542,7 @@
       <c r="CQ188" s="6"/>
       <c r="CR188" s="6"/>
     </row>
-    <row r="189" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="16"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -35635,7 +35640,7 @@
       <c r="CQ189" s="6"/>
       <c r="CR189" s="6"/>
     </row>
-    <row r="190" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="16"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -35733,7 +35738,7 @@
       <c r="CQ190" s="6"/>
       <c r="CR190" s="6"/>
     </row>
-    <row r="191" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="16"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -35831,21 +35836,21 @@
       <c r="CQ191" s="6"/>
       <c r="CR191" s="6"/>
     </row>
-    <row r="192" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B192" s="57" t="s">
+      <c r="B192" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="57" t="s">
+      <c r="C192" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="42"/>
-      <c r="E192" s="55" t="s">
+      <c r="E192" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F192" s="53" t="s">
+      <c r="F192" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G192" s="52">
@@ -35960,15 +35965,15 @@
       <c r="CQ192" s="52"/>
       <c r="CR192" s="52"/>
     </row>
-    <row r="193" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B193" s="58"/>
-      <c r="C193" s="58"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="54"/>
       <c r="D193" s="43"/>
-      <c r="E193" s="56"/>
-      <c r="F193" s="54"/>
+      <c r="E193" s="57"/>
+      <c r="F193" s="59"/>
       <c r="G193" s="5" t="s">
         <v>24</v>
       </c>
@@ -36228,7 +36233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <f>A156</f>
         <v>1</v>
@@ -36377,7 +36382,7 @@
       <c r="CQ194" s="20"/>
       <c r="CR194" s="21"/>
     </row>
-    <row r="195" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A195" s="5" t="str">
         <f t="shared" ref="A195:F195" si="197">A157</f>
         <v/>
@@ -36526,7 +36531,7 @@
       <c r="CQ195" s="20"/>
       <c r="CR195" s="21"/>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A196" s="5" t="str">
         <f t="shared" ref="A196:F196" si="199">A158</f>
         <v/>
@@ -36675,7 +36680,7 @@
       <c r="CQ196" s="20"/>
       <c r="CR196" s="21"/>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A197" s="5" t="str">
         <f t="shared" ref="A197:F197" si="200">A159</f>
         <v/>
@@ -36824,7 +36829,7 @@
       <c r="CQ197" s="20"/>
       <c r="CR197" s="21"/>
     </row>
-    <row r="198" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A198" s="5" t="str">
         <f t="shared" ref="A198:F198" si="201">A160</f>
         <v/>
@@ -36973,7 +36978,7 @@
       <c r="CQ198" s="20"/>
       <c r="CR198" s="21"/>
     </row>
-    <row r="199" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A199" s="5" t="str">
         <f t="shared" ref="A199:F199" si="202">A161</f>
         <v/>
@@ -37122,7 +37127,7 @@
       <c r="CQ199" s="20"/>
       <c r="CR199" s="21"/>
     </row>
-    <row r="200" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A200" s="5" t="str">
         <f t="shared" ref="A200:F200" si="203">A162</f>
         <v/>
@@ -37271,7 +37276,7 @@
       <c r="CQ200" s="20"/>
       <c r="CR200" s="21"/>
     </row>
-    <row r="201" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A201" s="5" t="str">
         <f t="shared" ref="A201:F201" si="204">A163</f>
         <v/>
@@ -37420,7 +37425,7 @@
       <c r="CQ201" s="20"/>
       <c r="CR201" s="21"/>
     </row>
-    <row r="202" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A202" s="5" t="str">
         <f t="shared" ref="A202:F202" si="205">A164</f>
         <v/>
@@ -37569,7 +37574,7 @@
       <c r="CQ202" s="20"/>
       <c r="CR202" s="21"/>
     </row>
-    <row r="203" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A203" s="5" t="str">
         <f t="shared" ref="A203:F203" si="206">A165</f>
         <v/>
@@ -37718,7 +37723,7 @@
       <c r="CQ203" s="20"/>
       <c r="CR203" s="21"/>
     </row>
-    <row r="204" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A204" s="5" t="str">
         <f t="shared" ref="A204:F204" si="207">A166</f>
         <v/>
@@ -37867,7 +37872,7 @@
       <c r="CQ204" s="20"/>
       <c r="CR204" s="21"/>
     </row>
-    <row r="205" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="str">
         <f t="shared" ref="A205:F205" si="208">A167</f>
         <v/>
@@ -38016,7 +38021,7 @@
       <c r="CQ205" s="20"/>
       <c r="CR205" s="21"/>
     </row>
-    <row r="206" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="str">
         <f t="shared" ref="A206:F206" si="209">A168</f>
         <v/>
@@ -38165,7 +38170,7 @@
       <c r="CQ206" s="20"/>
       <c r="CR206" s="21"/>
     </row>
-    <row r="207" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="str">
         <f t="shared" ref="A207:F207" si="210">A169</f>
         <v/>
@@ -38314,7 +38319,7 @@
       <c r="CQ207" s="20"/>
       <c r="CR207" s="21"/>
     </row>
-    <row r="208" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="str">
         <f t="shared" ref="A208:F208" si="211">A170</f>
         <v/>
@@ -38463,7 +38468,7 @@
       <c r="CQ208" s="20"/>
       <c r="CR208" s="21"/>
     </row>
-    <row r="209" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="str">
         <f t="shared" ref="A209:F209" si="212">A171</f>
         <v/>
@@ -38612,7 +38617,7 @@
       <c r="CQ209" s="20"/>
       <c r="CR209" s="21"/>
     </row>
-    <row r="210" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="str">
         <f t="shared" ref="A210:F210" si="213">A172</f>
         <v/>
@@ -38761,7 +38766,7 @@
       <c r="CQ210" s="20"/>
       <c r="CR210" s="21"/>
     </row>
-    <row r="211" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="str">
         <f t="shared" ref="A211:F211" si="214">A173</f>
         <v/>
@@ -38910,7 +38915,7 @@
       <c r="CQ211" s="20"/>
       <c r="CR211" s="21"/>
     </row>
-    <row r="212" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="str">
         <f t="shared" ref="A212:F212" si="215">A174</f>
         <v/>
@@ -39059,7 +39064,7 @@
       <c r="CQ212" s="20"/>
       <c r="CR212" s="21"/>
     </row>
-    <row r="213" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="str">
         <f t="shared" ref="A213:F213" si="216">A175</f>
         <v/>
@@ -39208,7 +39213,7 @@
       <c r="CQ213" s="20"/>
       <c r="CR213" s="21"/>
     </row>
-    <row r="214" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="str">
         <f t="shared" ref="A214:F214" si="217">A176</f>
         <v/>
@@ -39357,7 +39362,7 @@
       <c r="CQ214" s="20"/>
       <c r="CR214" s="21"/>
     </row>
-    <row r="215" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="str">
         <f t="shared" ref="A215:F215" si="218">A177</f>
         <v/>
@@ -39506,7 +39511,7 @@
       <c r="CQ215" s="20"/>
       <c r="CR215" s="21"/>
     </row>
-    <row r="216" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="str">
         <f t="shared" ref="A216:F216" si="219">A178</f>
         <v/>
@@ -39655,7 +39660,7 @@
       <c r="CQ216" s="20"/>
       <c r="CR216" s="21"/>
     </row>
-    <row r="217" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="str">
         <f t="shared" ref="A217:F217" si="220">A179</f>
         <v/>
@@ -39804,7 +39809,7 @@
       <c r="CQ217" s="20"/>
       <c r="CR217" s="21"/>
     </row>
-    <row r="218" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="str">
         <f t="shared" ref="A218:F218" si="221">A180</f>
         <v/>
@@ -39953,7 +39958,7 @@
       <c r="CQ218" s="20"/>
       <c r="CR218" s="21"/>
     </row>
-    <row r="219" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A219" s="5" t="str">
         <f t="shared" ref="A219:F219" si="222">A181</f>
         <v/>
@@ -40102,7 +40107,7 @@
       <c r="CQ219" s="20"/>
       <c r="CR219" s="21"/>
     </row>
-    <row r="220" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A220" s="5" t="str">
         <f t="shared" ref="A220:F220" si="223">A182</f>
         <v/>
@@ -40251,7 +40256,7 @@
       <c r="CQ220" s="20"/>
       <c r="CR220" s="21"/>
     </row>
-    <row r="221" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A221" s="5" t="str">
         <f t="shared" ref="A221:F221" si="224">A183</f>
         <v/>
@@ -40400,7 +40405,7 @@
       <c r="CQ221" s="20"/>
       <c r="CR221" s="21"/>
     </row>
-    <row r="222" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A222" s="5" t="str">
         <f t="shared" ref="A222:F222" si="225">A184</f>
         <v/>
@@ -40549,7 +40554,7 @@
       <c r="CQ222" s="20"/>
       <c r="CR222" s="21"/>
     </row>
-    <row r="223" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A223" s="5" t="str">
         <f t="shared" ref="A223:F223" si="226">A185</f>
         <v/>
@@ -40698,7 +40703,7 @@
       <c r="CQ223" s="20"/>
       <c r="CR223" s="21"/>
     </row>
-    <row r="224" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="16"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
@@ -40796,7 +40801,7 @@
       <c r="CQ224" s="6"/>
       <c r="CR224" s="6"/>
     </row>
-    <row r="225" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="16"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
@@ -40894,7 +40899,7 @@
       <c r="CQ225" s="6"/>
       <c r="CR225" s="6"/>
     </row>
-    <row r="226" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="16"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
@@ -40992,7 +40997,7 @@
       <c r="CQ226" s="6"/>
       <c r="CR226" s="6"/>
     </row>
-    <row r="227" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="16"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
@@ -41090,7 +41095,7 @@
       <c r="CQ227" s="6"/>
       <c r="CR227" s="6"/>
     </row>
-    <row r="228" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="16"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
@@ -41188,7 +41193,7 @@
       <c r="CQ228" s="6"/>
       <c r="CR228" s="6"/>
     </row>
-    <row r="229" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="16"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
@@ -41286,21 +41291,21 @@
       <c r="CQ229" s="6"/>
       <c r="CR229" s="6"/>
     </row>
-    <row r="230" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B230" s="57" t="s">
+      <c r="B230" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C230" s="57" t="s">
+      <c r="C230" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D230" s="42"/>
-      <c r="E230" s="55" t="s">
+      <c r="E230" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F230" s="53" t="s">
+      <c r="F230" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G230" s="50">
@@ -41415,15 +41420,15 @@
       <c r="CQ230" s="50"/>
       <c r="CR230" s="50"/>
     </row>
-    <row r="231" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="58"/>
-      <c r="C231" s="58"/>
+      <c r="B231" s="54"/>
+      <c r="C231" s="54"/>
       <c r="D231" s="43"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="54"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="59"/>
       <c r="G231" s="5" t="s">
         <v>24</v>
       </c>
@@ -41683,7 +41688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A232" s="5">
         <f>A194</f>
         <v>1</v>
@@ -41832,7 +41837,7 @@
       <c r="CQ232" s="20"/>
       <c r="CR232" s="21"/>
     </row>
-    <row r="233" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A233" s="5" t="str">
         <f t="shared" ref="A233:F233" si="240">A195</f>
         <v/>
@@ -41981,7 +41986,7 @@
       <c r="CQ233" s="20"/>
       <c r="CR233" s="21"/>
     </row>
-    <row r="234" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A234" s="5" t="str">
         <f t="shared" ref="A234:F234" si="242">A196</f>
         <v/>
@@ -42130,7 +42135,7 @@
       <c r="CQ234" s="20"/>
       <c r="CR234" s="21"/>
     </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A235" s="5" t="str">
         <f t="shared" ref="A235:F235" si="243">A197</f>
         <v/>
@@ -42279,7 +42284,7 @@
       <c r="CQ235" s="20"/>
       <c r="CR235" s="21"/>
     </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A236" s="5" t="str">
         <f t="shared" ref="A236:F236" si="244">A198</f>
         <v/>
@@ -42428,7 +42433,7 @@
       <c r="CQ236" s="20"/>
       <c r="CR236" s="21"/>
     </row>
-    <row r="237" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A237" s="5" t="str">
         <f t="shared" ref="A237:F237" si="245">A199</f>
         <v/>
@@ -42577,7 +42582,7 @@
       <c r="CQ237" s="20"/>
       <c r="CR237" s="21"/>
     </row>
-    <row r="238" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A238" s="5" t="str">
         <f t="shared" ref="A238:F238" si="246">A200</f>
         <v/>
@@ -42726,7 +42731,7 @@
       <c r="CQ238" s="20"/>
       <c r="CR238" s="21"/>
     </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A239" s="5" t="str">
         <f t="shared" ref="A239:F239" si="247">A201</f>
         <v/>
@@ -42875,7 +42880,7 @@
       <c r="CQ239" s="20"/>
       <c r="CR239" s="21"/>
     </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="str">
         <f t="shared" ref="A240:F240" si="248">A202</f>
         <v/>
@@ -43024,7 +43029,7 @@
       <c r="CQ240" s="20"/>
       <c r="CR240" s="21"/>
     </row>
-    <row r="241" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="str">
         <f t="shared" ref="A241:F241" si="249">A203</f>
         <v/>
@@ -43173,7 +43178,7 @@
       <c r="CQ241" s="20"/>
       <c r="CR241" s="21"/>
     </row>
-    <row r="242" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="str">
         <f t="shared" ref="A242:F242" si="250">A204</f>
         <v/>
@@ -43322,7 +43327,7 @@
       <c r="CQ242" s="20"/>
       <c r="CR242" s="21"/>
     </row>
-    <row r="243" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="str">
         <f t="shared" ref="A243:F243" si="251">A205</f>
         <v/>
@@ -43471,7 +43476,7 @@
       <c r="CQ243" s="20"/>
       <c r="CR243" s="21"/>
     </row>
-    <row r="244" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="str">
         <f t="shared" ref="A244:F244" si="252">A206</f>
         <v/>
@@ -43620,7 +43625,7 @@
       <c r="CQ244" s="20"/>
       <c r="CR244" s="21"/>
     </row>
-    <row r="245" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="str">
         <f t="shared" ref="A245:F245" si="253">A207</f>
         <v/>
@@ -43769,7 +43774,7 @@
       <c r="CQ245" s="20"/>
       <c r="CR245" s="21"/>
     </row>
-    <row r="246" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="str">
         <f t="shared" ref="A246:F246" si="254">A208</f>
         <v/>
@@ -43918,7 +43923,7 @@
       <c r="CQ246" s="20"/>
       <c r="CR246" s="21"/>
     </row>
-    <row r="247" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A247" s="5" t="str">
         <f t="shared" ref="A247:F247" si="255">A209</f>
         <v/>
@@ -44067,7 +44072,7 @@
       <c r="CQ247" s="20"/>
       <c r="CR247" s="21"/>
     </row>
-    <row r="248" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A248" s="5" t="str">
         <f t="shared" ref="A248:F248" si="256">A210</f>
         <v/>
@@ -44216,7 +44221,7 @@
       <c r="CQ248" s="20"/>
       <c r="CR248" s="21"/>
     </row>
-    <row r="249" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A249" s="5" t="str">
         <f t="shared" ref="A249:F249" si="257">A211</f>
         <v/>
@@ -44365,7 +44370,7 @@
       <c r="CQ249" s="20"/>
       <c r="CR249" s="21"/>
     </row>
-    <row r="250" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A250" s="5" t="str">
         <f t="shared" ref="A250:F250" si="258">A212</f>
         <v/>
@@ -44514,7 +44519,7 @@
       <c r="CQ250" s="20"/>
       <c r="CR250" s="21"/>
     </row>
-    <row r="251" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A251" s="5" t="str">
         <f t="shared" ref="A251:F251" si="259">A213</f>
         <v/>
@@ -44663,7 +44668,7 @@
       <c r="CQ251" s="20"/>
       <c r="CR251" s="21"/>
     </row>
-    <row r="252" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A252" s="5" t="str">
         <f t="shared" ref="A252:F252" si="260">A214</f>
         <v/>
@@ -44812,7 +44817,7 @@
       <c r="CQ252" s="20"/>
       <c r="CR252" s="21"/>
     </row>
-    <row r="253" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A253" s="5" t="str">
         <f t="shared" ref="A253:F253" si="261">A215</f>
         <v/>
@@ -44961,7 +44966,7 @@
       <c r="CQ253" s="20"/>
       <c r="CR253" s="21"/>
     </row>
-    <row r="254" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A254" s="5" t="str">
         <f t="shared" ref="A254:F254" si="262">A216</f>
         <v/>
@@ -45110,7 +45115,7 @@
       <c r="CQ254" s="20"/>
       <c r="CR254" s="21"/>
     </row>
-    <row r="255" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A255" s="5" t="str">
         <f t="shared" ref="A255:F255" si="263">A217</f>
         <v/>
@@ -45259,7 +45264,7 @@
       <c r="CQ255" s="20"/>
       <c r="CR255" s="21"/>
     </row>
-    <row r="256" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A256" s="5" t="str">
         <f t="shared" ref="A256:F256" si="264">A218</f>
         <v/>
@@ -45408,7 +45413,7 @@
       <c r="CQ256" s="20"/>
       <c r="CR256" s="21"/>
     </row>
-    <row r="257" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A257" s="5" t="str">
         <f t="shared" ref="A257:F257" si="265">A219</f>
         <v/>
@@ -45557,7 +45562,7 @@
       <c r="CQ257" s="20"/>
       <c r="CR257" s="21"/>
     </row>
-    <row r="258" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A258" s="5" t="str">
         <f t="shared" ref="A258:F258" si="266">A220</f>
         <v/>
@@ -45706,7 +45711,7 @@
       <c r="CQ258" s="20"/>
       <c r="CR258" s="21"/>
     </row>
-    <row r="259" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A259" s="5" t="str">
         <f t="shared" ref="A259:F259" si="267">A221</f>
         <v/>
@@ -45855,7 +45860,7 @@
       <c r="CQ259" s="20"/>
       <c r="CR259" s="21"/>
     </row>
-    <row r="260" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A260" s="5" t="str">
         <f t="shared" ref="A260:F260" si="268">A222</f>
         <v/>
@@ -46004,7 +46009,7 @@
       <c r="CQ260" s="20"/>
       <c r="CR260" s="21"/>
     </row>
-    <row r="261" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A261" s="5" t="str">
         <f t="shared" ref="A261:F261" si="269">A223</f>
         <v/>
@@ -46153,7 +46158,7 @@
       <c r="CQ261" s="20"/>
       <c r="CR261" s="21"/>
     </row>
-    <row r="262" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="16"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
@@ -46251,7 +46256,7 @@
       <c r="CQ262" s="6"/>
       <c r="CR262" s="6"/>
     </row>
-    <row r="263" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="16"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
@@ -46349,7 +46354,7 @@
       <c r="CQ263" s="6"/>
       <c r="CR263" s="6"/>
     </row>
-    <row r="264" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="16"/>
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
@@ -46447,7 +46452,7 @@
       <c r="CQ264" s="6"/>
       <c r="CR264" s="6"/>
     </row>
-    <row r="265" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="16"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
@@ -46545,7 +46550,7 @@
       <c r="CQ265" s="6"/>
       <c r="CR265" s="6"/>
     </row>
-    <row r="266" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="16"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
@@ -46643,7 +46648,7 @@
       <c r="CQ266" s="6"/>
       <c r="CR266" s="6"/>
     </row>
-    <row r="267" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="16"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
@@ -46741,21 +46746,21 @@
       <c r="CQ267" s="6"/>
       <c r="CR267" s="6"/>
     </row>
-    <row r="268" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B268" s="57" t="s">
+      <c r="B268" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C268" s="57" t="s">
+      <c r="C268" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D268" s="42"/>
-      <c r="E268" s="55" t="s">
+      <c r="E268" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F268" s="53" t="s">
+      <c r="F268" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G268" s="50">
@@ -46870,15 +46875,15 @@
       <c r="CQ268" s="50"/>
       <c r="CR268" s="50"/>
     </row>
-    <row r="269" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B269" s="58"/>
-      <c r="C269" s="58"/>
+      <c r="B269" s="54"/>
+      <c r="C269" s="54"/>
       <c r="D269" s="43"/>
-      <c r="E269" s="56"/>
-      <c r="F269" s="54"/>
+      <c r="E269" s="57"/>
+      <c r="F269" s="59"/>
       <c r="G269" s="5" t="s">
         <v>24</v>
       </c>
@@ -47138,7 +47143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A270" s="5">
         <f>A232</f>
         <v>1</v>
@@ -47287,7 +47292,7 @@
       <c r="CQ270" s="20"/>
       <c r="CR270" s="21"/>
     </row>
-    <row r="271" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A271" s="5" t="str">
         <f t="shared" ref="A271:F271" si="283">A233</f>
         <v/>
@@ -47436,7 +47441,7 @@
       <c r="CQ271" s="20"/>
       <c r="CR271" s="21"/>
     </row>
-    <row r="272" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A272" s="5" t="str">
         <f t="shared" ref="A272:F272" si="285">A234</f>
         <v/>
@@ -47585,7 +47590,7 @@
       <c r="CQ272" s="20"/>
       <c r="CR272" s="21"/>
     </row>
-    <row r="273" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A273" s="5" t="str">
         <f t="shared" ref="A273:F273" si="286">A235</f>
         <v/>
@@ -47734,7 +47739,7 @@
       <c r="CQ273" s="20"/>
       <c r="CR273" s="21"/>
     </row>
-    <row r="274" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A274" s="5" t="str">
         <f t="shared" ref="A274:F274" si="287">A236</f>
         <v/>
@@ -47883,7 +47888,7 @@
       <c r="CQ274" s="20"/>
       <c r="CR274" s="21"/>
     </row>
-    <row r="275" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A275" s="5" t="str">
         <f t="shared" ref="A275:F275" si="288">A237</f>
         <v/>
@@ -48032,7 +48037,7 @@
       <c r="CQ275" s="20"/>
       <c r="CR275" s="21"/>
     </row>
-    <row r="276" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A276" s="5" t="str">
         <f t="shared" ref="A276:F276" si="289">A238</f>
         <v/>
@@ -48181,7 +48186,7 @@
       <c r="CQ276" s="20"/>
       <c r="CR276" s="21"/>
     </row>
-    <row r="277" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A277" s="5" t="str">
         <f t="shared" ref="A277:F277" si="290">A239</f>
         <v/>
@@ -48330,7 +48335,7 @@
       <c r="CQ277" s="20"/>
       <c r="CR277" s="21"/>
     </row>
-    <row r="278" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A278" s="5" t="str">
         <f t="shared" ref="A278:F278" si="291">A240</f>
         <v/>
@@ -48479,7 +48484,7 @@
       <c r="CQ278" s="20"/>
       <c r="CR278" s="21"/>
     </row>
-    <row r="279" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A279" s="5" t="str">
         <f t="shared" ref="A279:F279" si="292">A241</f>
         <v/>
@@ -48628,7 +48633,7 @@
       <c r="CQ279" s="20"/>
       <c r="CR279" s="21"/>
     </row>
-    <row r="280" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A280" s="5" t="str">
         <f t="shared" ref="A280:F280" si="293">A242</f>
         <v/>
@@ -48777,7 +48782,7 @@
       <c r="CQ280" s="20"/>
       <c r="CR280" s="21"/>
     </row>
-    <row r="281" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A281" s="5" t="str">
         <f t="shared" ref="A281:F281" si="294">A243</f>
         <v/>
@@ -48926,7 +48931,7 @@
       <c r="CQ281" s="20"/>
       <c r="CR281" s="21"/>
     </row>
-    <row r="282" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A282" s="5" t="str">
         <f t="shared" ref="A282:F282" si="295">A244</f>
         <v/>
@@ -49075,7 +49080,7 @@
       <c r="CQ282" s="20"/>
       <c r="CR282" s="21"/>
     </row>
-    <row r="283" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A283" s="5" t="str">
         <f t="shared" ref="A283:F283" si="296">A245</f>
         <v/>
@@ -49224,7 +49229,7 @@
       <c r="CQ283" s="20"/>
       <c r="CR283" s="21"/>
     </row>
-    <row r="284" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A284" s="5" t="str">
         <f t="shared" ref="A284:F284" si="297">A246</f>
         <v/>
@@ -49373,7 +49378,7 @@
       <c r="CQ284" s="20"/>
       <c r="CR284" s="21"/>
     </row>
-    <row r="285" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A285" s="5" t="str">
         <f t="shared" ref="A285:F285" si="298">A247</f>
         <v/>
@@ -49522,7 +49527,7 @@
       <c r="CQ285" s="20"/>
       <c r="CR285" s="21"/>
     </row>
-    <row r="286" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A286" s="5" t="str">
         <f t="shared" ref="A286:F286" si="299">A248</f>
         <v/>
@@ -49671,7 +49676,7 @@
       <c r="CQ286" s="20"/>
       <c r="CR286" s="21"/>
     </row>
-    <row r="287" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A287" s="5" t="str">
         <f t="shared" ref="A287:F287" si="300">A249</f>
         <v/>
@@ -49820,7 +49825,7 @@
       <c r="CQ287" s="20"/>
       <c r="CR287" s="21"/>
     </row>
-    <row r="288" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A288" s="5" t="str">
         <f t="shared" ref="A288:F288" si="301">A250</f>
         <v/>
@@ -49969,7 +49974,7 @@
       <c r="CQ288" s="20"/>
       <c r="CR288" s="21"/>
     </row>
-    <row r="289" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A289" s="5" t="str">
         <f t="shared" ref="A289:F289" si="302">A251</f>
         <v/>
@@ -50118,7 +50123,7 @@
       <c r="CQ289" s="20"/>
       <c r="CR289" s="21"/>
     </row>
-    <row r="290" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A290" s="5" t="str">
         <f t="shared" ref="A290:F290" si="303">A252</f>
         <v/>
@@ -50267,7 +50272,7 @@
       <c r="CQ290" s="20"/>
       <c r="CR290" s="21"/>
     </row>
-    <row r="291" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A291" s="5" t="str">
         <f t="shared" ref="A291:F291" si="304">A253</f>
         <v/>
@@ -50416,7 +50421,7 @@
       <c r="CQ291" s="20"/>
       <c r="CR291" s="21"/>
     </row>
-    <row r="292" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A292" s="5" t="str">
         <f t="shared" ref="A292:F292" si="305">A254</f>
         <v/>
@@ -50565,7 +50570,7 @@
       <c r="CQ292" s="20"/>
       <c r="CR292" s="21"/>
     </row>
-    <row r="293" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="str">
         <f t="shared" ref="A293:F293" si="306">A255</f>
         <v/>
@@ -50714,7 +50719,7 @@
       <c r="CQ293" s="20"/>
       <c r="CR293" s="21"/>
     </row>
-    <row r="294" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="str">
         <f t="shared" ref="A294:F294" si="307">A256</f>
         <v/>
@@ -50863,7 +50868,7 @@
       <c r="CQ294" s="20"/>
       <c r="CR294" s="21"/>
     </row>
-    <row r="295" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="str">
         <f t="shared" ref="A295:F295" si="308">A257</f>
         <v/>
@@ -51012,7 +51017,7 @@
       <c r="CQ295" s="20"/>
       <c r="CR295" s="21"/>
     </row>
-    <row r="296" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="str">
         <f t="shared" ref="A296:F296" si="309">A258</f>
         <v/>
@@ -51161,7 +51166,7 @@
       <c r="CQ296" s="20"/>
       <c r="CR296" s="21"/>
     </row>
-    <row r="297" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A297" s="5" t="str">
         <f t="shared" ref="A297:F297" si="310">A259</f>
         <v/>
@@ -51310,7 +51315,7 @@
       <c r="CQ297" s="20"/>
       <c r="CR297" s="21"/>
     </row>
-    <row r="298" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A298" s="5" t="str">
         <f t="shared" ref="A298:F298" si="311">A260</f>
         <v/>
@@ -51459,7 +51464,7 @@
       <c r="CQ298" s="20"/>
       <c r="CR298" s="21"/>
     </row>
-    <row r="299" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A299" s="5" t="str">
         <f t="shared" ref="A299:F299" si="312">A261</f>
         <v/>
@@ -51608,7 +51613,7 @@
       <c r="CQ299" s="20"/>
       <c r="CR299" s="21"/>
     </row>
-    <row r="300" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="16"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
@@ -51706,7 +51711,7 @@
       <c r="CQ300" s="6"/>
       <c r="CR300" s="6"/>
     </row>
-    <row r="301" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="16"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
@@ -51804,7 +51809,7 @@
       <c r="CQ301" s="6"/>
       <c r="CR301" s="6"/>
     </row>
-    <row r="302" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="16"/>
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
@@ -51902,7 +51907,7 @@
       <c r="CQ302" s="6"/>
       <c r="CR302" s="6"/>
     </row>
-    <row r="303" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="16"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
@@ -52000,7 +52005,7 @@
       <c r="CQ303" s="6"/>
       <c r="CR303" s="6"/>
     </row>
-    <row r="304" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="16"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
@@ -52098,7 +52103,7 @@
       <c r="CQ304" s="6"/>
       <c r="CR304" s="6"/>
     </row>
-    <row r="305" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="16"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
@@ -52196,21 +52201,21 @@
       <c r="CQ305" s="6"/>
       <c r="CR305" s="6"/>
     </row>
-    <row r="306" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B306" s="57" t="s">
+      <c r="B306" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C306" s="57" t="s">
+      <c r="C306" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D306" s="42"/>
-      <c r="E306" s="55" t="s">
+      <c r="E306" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F306" s="53" t="s">
+      <c r="F306" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G306" s="50">
@@ -52325,15 +52330,15 @@
       <c r="CQ306" s="50"/>
       <c r="CR306" s="50"/>
     </row>
-    <row r="307" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B307" s="58"/>
-      <c r="C307" s="58"/>
+      <c r="B307" s="54"/>
+      <c r="C307" s="54"/>
       <c r="D307" s="43"/>
-      <c r="E307" s="56"/>
-      <c r="F307" s="54"/>
+      <c r="E307" s="57"/>
+      <c r="F307" s="59"/>
       <c r="G307" s="5" t="s">
         <v>24</v>
       </c>
@@ -52593,7 +52598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A308" s="5">
         <f>A270</f>
         <v>1</v>
@@ -52742,7 +52747,7 @@
       <c r="CQ308" s="20"/>
       <c r="CR308" s="21"/>
     </row>
-    <row r="309" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A309" s="5" t="str">
         <f t="shared" ref="A309:F309" si="326">A271</f>
         <v/>
@@ -52891,7 +52896,7 @@
       <c r="CQ309" s="20"/>
       <c r="CR309" s="21"/>
     </row>
-    <row r="310" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A310" s="5" t="str">
         <f t="shared" ref="A310:F310" si="328">A272</f>
         <v/>
@@ -53040,7 +53045,7 @@
       <c r="CQ310" s="20"/>
       <c r="CR310" s="21"/>
     </row>
-    <row r="311" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A311" s="5" t="str">
         <f t="shared" ref="A311:F311" si="329">A273</f>
         <v/>
@@ -53189,7 +53194,7 @@
       <c r="CQ311" s="20"/>
       <c r="CR311" s="21"/>
     </row>
-    <row r="312" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A312" s="5" t="str">
         <f t="shared" ref="A312:F312" si="330">A274</f>
         <v/>
@@ -53338,7 +53343,7 @@
       <c r="CQ312" s="20"/>
       <c r="CR312" s="21"/>
     </row>
-    <row r="313" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A313" s="5" t="str">
         <f t="shared" ref="A313:F313" si="331">A275</f>
         <v/>
@@ -53487,7 +53492,7 @@
       <c r="CQ313" s="20"/>
       <c r="CR313" s="21"/>
     </row>
-    <row r="314" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A314" s="5" t="str">
         <f t="shared" ref="A314:F314" si="332">A276</f>
         <v/>
@@ -53636,7 +53641,7 @@
       <c r="CQ314" s="20"/>
       <c r="CR314" s="21"/>
     </row>
-    <row r="315" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A315" s="5" t="str">
         <f t="shared" ref="A315:F315" si="333">A277</f>
         <v/>
@@ -53785,7 +53790,7 @@
       <c r="CQ315" s="20"/>
       <c r="CR315" s="21"/>
     </row>
-    <row r="316" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A316" s="5" t="str">
         <f t="shared" ref="A316:F316" si="334">A278</f>
         <v/>
@@ -53934,7 +53939,7 @@
       <c r="CQ316" s="20"/>
       <c r="CR316" s="21"/>
     </row>
-    <row r="317" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A317" s="5" t="str">
         <f t="shared" ref="A317:F317" si="335">A279</f>
         <v/>
@@ -54083,7 +54088,7 @@
       <c r="CQ317" s="20"/>
       <c r="CR317" s="21"/>
     </row>
-    <row r="318" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A318" s="5" t="str">
         <f t="shared" ref="A318:F318" si="336">A280</f>
         <v/>
@@ -54232,7 +54237,7 @@
       <c r="CQ318" s="20"/>
       <c r="CR318" s="21"/>
     </row>
-    <row r="319" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A319" s="5" t="str">
         <f t="shared" ref="A319:F319" si="337">A281</f>
         <v/>
@@ -54381,7 +54386,7 @@
       <c r="CQ319" s="20"/>
       <c r="CR319" s="21"/>
     </row>
-    <row r="320" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A320" s="5" t="str">
         <f t="shared" ref="A320:F320" si="338">A282</f>
         <v/>
@@ -54530,7 +54535,7 @@
       <c r="CQ320" s="20"/>
       <c r="CR320" s="21"/>
     </row>
-    <row r="321" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A321" s="5" t="str">
         <f t="shared" ref="A321:F321" si="339">A283</f>
         <v/>
@@ -54679,7 +54684,7 @@
       <c r="CQ321" s="20"/>
       <c r="CR321" s="21"/>
     </row>
-    <row r="322" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A322" s="5" t="str">
         <f t="shared" ref="A322:F322" si="340">A284</f>
         <v/>
@@ -54828,7 +54833,7 @@
       <c r="CQ322" s="20"/>
       <c r="CR322" s="21"/>
     </row>
-    <row r="323" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A323" s="5" t="str">
         <f t="shared" ref="A323:F323" si="341">A285</f>
         <v/>
@@ -54977,7 +54982,7 @@
       <c r="CQ323" s="20"/>
       <c r="CR323" s="21"/>
     </row>
-    <row r="324" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A324" s="5" t="str">
         <f t="shared" ref="A324:F324" si="342">A286</f>
         <v/>
@@ -55126,7 +55131,7 @@
       <c r="CQ324" s="20"/>
       <c r="CR324" s="21"/>
     </row>
-    <row r="325" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A325" s="5" t="str">
         <f t="shared" ref="A325:F325" si="343">A287</f>
         <v/>
@@ -55275,7 +55280,7 @@
       <c r="CQ325" s="20"/>
       <c r="CR325" s="21"/>
     </row>
-    <row r="326" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A326" s="5" t="str">
         <f t="shared" ref="A326:F326" si="344">A288</f>
         <v/>
@@ -55424,7 +55429,7 @@
       <c r="CQ326" s="20"/>
       <c r="CR326" s="21"/>
     </row>
-    <row r="327" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A327" s="5" t="str">
         <f t="shared" ref="A327:F327" si="345">A289</f>
         <v/>
@@ -55573,7 +55578,7 @@
       <c r="CQ327" s="20"/>
       <c r="CR327" s="21"/>
     </row>
-    <row r="328" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A328" s="5" t="str">
         <f t="shared" ref="A328:F328" si="346">A290</f>
         <v/>
@@ -55722,7 +55727,7 @@
       <c r="CQ328" s="20"/>
       <c r="CR328" s="21"/>
     </row>
-    <row r="329" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A329" s="5" t="str">
         <f t="shared" ref="A329:F329" si="347">A291</f>
         <v/>
@@ -55871,7 +55876,7 @@
       <c r="CQ329" s="20"/>
       <c r="CR329" s="21"/>
     </row>
-    <row r="330" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A330" s="5" t="str">
         <f t="shared" ref="A330:F330" si="348">A292</f>
         <v/>
@@ -56020,7 +56025,7 @@
       <c r="CQ330" s="20"/>
       <c r="CR330" s="21"/>
     </row>
-    <row r="331" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A331" s="5" t="str">
         <f t="shared" ref="A331:F331" si="349">A293</f>
         <v/>
@@ -56169,7 +56174,7 @@
       <c r="CQ331" s="20"/>
       <c r="CR331" s="21"/>
     </row>
-    <row r="332" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A332" s="5" t="str">
         <f t="shared" ref="A332:F332" si="350">A294</f>
         <v/>
@@ -56318,7 +56323,7 @@
       <c r="CQ332" s="20"/>
       <c r="CR332" s="21"/>
     </row>
-    <row r="333" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A333" s="5" t="str">
         <f t="shared" ref="A333:F333" si="351">A295</f>
         <v/>
@@ -56467,7 +56472,7 @@
       <c r="CQ333" s="20"/>
       <c r="CR333" s="21"/>
     </row>
-    <row r="334" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A334" s="5" t="str">
         <f t="shared" ref="A334:F334" si="352">A296</f>
         <v/>
@@ -56616,7 +56621,7 @@
       <c r="CQ334" s="20"/>
       <c r="CR334" s="21"/>
     </row>
-    <row r="335" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A335" s="5" t="str">
         <f t="shared" ref="A335:F335" si="353">A297</f>
         <v/>
@@ -56765,7 +56770,7 @@
       <c r="CQ335" s="20"/>
       <c r="CR335" s="21"/>
     </row>
-    <row r="336" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A336" s="5" t="str">
         <f t="shared" ref="A336:F336" si="354">A298</f>
         <v/>
@@ -56914,7 +56919,7 @@
       <c r="CQ336" s="20"/>
       <c r="CR336" s="21"/>
     </row>
-    <row r="337" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A337" s="5" t="str">
         <f t="shared" ref="A337:F337" si="355">A299</f>
         <v/>
@@ -57063,7 +57068,7 @@
       <c r="CQ337" s="20"/>
       <c r="CR337" s="21"/>
     </row>
-    <row r="338" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="16"/>
       <c r="B338" s="14"/>
       <c r="C338" s="14"/>
@@ -57161,7 +57166,7 @@
       <c r="CQ338" s="6"/>
       <c r="CR338" s="6"/>
     </row>
-    <row r="339" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="16"/>
       <c r="B339" s="14"/>
       <c r="C339" s="14"/>
@@ -57259,7 +57264,7 @@
       <c r="CQ339" s="6"/>
       <c r="CR339" s="6"/>
     </row>
-    <row r="340" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="16"/>
       <c r="B340" s="14"/>
       <c r="C340" s="14"/>
@@ -57357,7 +57362,7 @@
       <c r="CQ340" s="6"/>
       <c r="CR340" s="6"/>
     </row>
-    <row r="341" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="16"/>
       <c r="B341" s="14"/>
       <c r="C341" s="14"/>
@@ -57455,7 +57460,7 @@
       <c r="CQ341" s="6"/>
       <c r="CR341" s="6"/>
     </row>
-    <row r="342" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="16"/>
       <c r="B342" s="14"/>
       <c r="C342" s="14"/>
@@ -57553,7 +57558,7 @@
       <c r="CQ342" s="6"/>
       <c r="CR342" s="6"/>
     </row>
-    <row r="343" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:96" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="16"/>
       <c r="B343" s="14"/>
       <c r="C343" s="14"/>
@@ -57651,21 +57656,21 @@
       <c r="CQ343" s="6"/>
       <c r="CR343" s="6"/>
     </row>
-    <row r="344" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B344" s="57" t="s">
+      <c r="B344" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C344" s="57" t="s">
+      <c r="C344" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D344" s="42"/>
-      <c r="E344" s="55" t="s">
+      <c r="E344" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F344" s="53" t="s">
+      <c r="F344" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G344" s="50">
@@ -57780,15 +57785,15 @@
       <c r="CQ344" s="50"/>
       <c r="CR344" s="50"/>
     </row>
-    <row r="345" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:96" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B345" s="58"/>
-      <c r="C345" s="58"/>
+      <c r="B345" s="54"/>
+      <c r="C345" s="54"/>
       <c r="D345" s="43"/>
-      <c r="E345" s="56"/>
-      <c r="F345" s="54"/>
+      <c r="E345" s="57"/>
+      <c r="F345" s="59"/>
       <c r="G345" s="5" t="s">
         <v>24</v>
       </c>
@@ -58048,7 +58053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A346" s="5">
         <f t="shared" ref="A346:A362" si="357">A308</f>
         <v>1</v>
@@ -58197,7 +58202,7 @@
       <c r="CQ346" s="20"/>
       <c r="CR346" s="21"/>
     </row>
-    <row r="347" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A347" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -58346,7 +58351,7 @@
       <c r="CQ347" s="20"/>
       <c r="CR347" s="20"/>
     </row>
-    <row r="348" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A348" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -58495,7 +58500,7 @@
       <c r="CQ348" s="20"/>
       <c r="CR348" s="20"/>
     </row>
-    <row r="349" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A349" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -58644,7 +58649,7 @@
       <c r="CQ349" s="20"/>
       <c r="CR349" s="20"/>
     </row>
-    <row r="350" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A350" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -58793,7 +58798,7 @@
       <c r="CQ350" s="20"/>
       <c r="CR350" s="20"/>
     </row>
-    <row r="351" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A351" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -58942,7 +58947,7 @@
       <c r="CQ351" s="20"/>
       <c r="CR351" s="20"/>
     </row>
-    <row r="352" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A352" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -59091,7 +59096,7 @@
       <c r="CQ352" s="20"/>
       <c r="CR352" s="20"/>
     </row>
-    <row r="353" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A353" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -59240,7 +59245,7 @@
       <c r="CQ353" s="20"/>
       <c r="CR353" s="20"/>
     </row>
-    <row r="354" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A354" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -59389,7 +59394,7 @@
       <c r="CQ354" s="20"/>
       <c r="CR354" s="20"/>
     </row>
-    <row r="355" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A355" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -59538,7 +59543,7 @@
       <c r="CQ355" s="20"/>
       <c r="CR355" s="20"/>
     </row>
-    <row r="356" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A356" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -59687,7 +59692,7 @@
       <c r="CQ356" s="20"/>
       <c r="CR356" s="20"/>
     </row>
-    <row r="357" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A357" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -59836,7 +59841,7 @@
       <c r="CQ357" s="20"/>
       <c r="CR357" s="20"/>
     </row>
-    <row r="358" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A358" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -59985,7 +59990,7 @@
       <c r="CQ358" s="20"/>
       <c r="CR358" s="20"/>
     </row>
-    <row r="359" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A359" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -60134,7 +60139,7 @@
       <c r="CQ359" s="20"/>
       <c r="CR359" s="20"/>
     </row>
-    <row r="360" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A360" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -60283,7 +60288,7 @@
       <c r="CQ360" s="20"/>
       <c r="CR360" s="20"/>
     </row>
-    <row r="361" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A361" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -60432,7 +60437,7 @@
       <c r="CQ361" s="20"/>
       <c r="CR361" s="20"/>
     </row>
-    <row r="362" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A362" s="5" t="str">
         <f t="shared" si="357"/>
         <v/>
@@ -60581,7 +60586,7 @@
       <c r="CQ362" s="20"/>
       <c r="CR362" s="20"/>
     </row>
-    <row r="363" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A363" s="5" t="str">
         <f t="shared" ref="A363:F365" si="373">A325</f>
         <v/>
@@ -60730,7 +60735,7 @@
       <c r="CQ363" s="20"/>
       <c r="CR363" s="20"/>
     </row>
-    <row r="364" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A364" s="5" t="str">
         <f t="shared" si="373"/>
         <v/>
@@ -60879,7 +60884,7 @@
       <c r="CQ364" s="20"/>
       <c r="CR364" s="20"/>
     </row>
-    <row r="365" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A365" s="5" t="str">
         <f t="shared" si="373"/>
         <v/>
@@ -61028,7 +61033,7 @@
       <c r="CQ365" s="20"/>
       <c r="CR365" s="20"/>
     </row>
-    <row r="366" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A366" s="5" t="str">
         <f t="shared" ref="A366:F366" si="374">A328</f>
         <v/>
@@ -61177,7 +61182,7 @@
       <c r="CQ366" s="20"/>
       <c r="CR366" s="20"/>
     </row>
-    <row r="367" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A367" s="5" t="str">
         <f t="shared" ref="A367:F367" si="375">A329</f>
         <v/>
@@ -61326,7 +61331,7 @@
       <c r="CQ367" s="20"/>
       <c r="CR367" s="20"/>
     </row>
-    <row r="368" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A368" s="5" t="str">
         <f t="shared" ref="A368:F368" si="376">A330</f>
         <v/>
@@ -61475,7 +61480,7 @@
       <c r="CQ368" s="20"/>
       <c r="CR368" s="20"/>
     </row>
-    <row r="369" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A369" s="5" t="str">
         <f t="shared" ref="A369:F369" si="377">A331</f>
         <v/>
@@ -61624,7 +61629,7 @@
       <c r="CQ369" s="20"/>
       <c r="CR369" s="20"/>
     </row>
-    <row r="370" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A370" s="5" t="str">
         <f t="shared" ref="A370:F370" si="378">A332</f>
         <v/>
@@ -61773,7 +61778,7 @@
       <c r="CQ370" s="20"/>
       <c r="CR370" s="20"/>
     </row>
-    <row r="371" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A371" s="5" t="str">
         <f t="shared" ref="A371:F371" si="379">A333</f>
         <v/>
@@ -61922,7 +61927,7 @@
       <c r="CQ371" s="20"/>
       <c r="CR371" s="20"/>
     </row>
-    <row r="372" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A372" s="5" t="str">
         <f t="shared" ref="A372:F372" si="380">A334</f>
         <v/>
@@ -62071,7 +62076,7 @@
       <c r="CQ372" s="20"/>
       <c r="CR372" s="20"/>
     </row>
-    <row r="373" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A373" s="5" t="str">
         <f t="shared" ref="A373:F373" si="381">A335</f>
         <v/>
@@ -62220,7 +62225,7 @@
       <c r="CQ373" s="20"/>
       <c r="CR373" s="20"/>
     </row>
-    <row r="374" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A374" s="5" t="str">
         <f t="shared" ref="A374:F374" si="382">A336</f>
         <v/>
@@ -62369,7 +62374,7 @@
       <c r="CQ374" s="20"/>
       <c r="CR374" s="20"/>
     </row>
-    <row r="375" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:96" ht="16" x14ac:dyDescent="0.4">
       <c r="A375" s="5" t="str">
         <f t="shared" ref="A375:F375" si="383">A337</f>
         <v/>
@@ -62520,17 +62525,89 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="BG306:BR306"/>
-    <mergeCell ref="BG344:BR344"/>
-    <mergeCell ref="BG1:BR1"/>
-    <mergeCell ref="BG2:BR2"/>
-    <mergeCell ref="BG40:BR40"/>
-    <mergeCell ref="BG78:BR78"/>
-    <mergeCell ref="BG116:BR116"/>
-    <mergeCell ref="BG154:BR154"/>
-    <mergeCell ref="BG192:BR192"/>
-    <mergeCell ref="BG230:BR230"/>
-    <mergeCell ref="BG268:BR268"/>
+    <mergeCell ref="BT306:CE306"/>
+    <mergeCell ref="BT344:CE344"/>
+    <mergeCell ref="CG1:CR1"/>
+    <mergeCell ref="CG2:CR2"/>
+    <mergeCell ref="CG40:CR40"/>
+    <mergeCell ref="CG78:CR78"/>
+    <mergeCell ref="CG116:CR116"/>
+    <mergeCell ref="CG154:CR154"/>
+    <mergeCell ref="CG192:CR192"/>
+    <mergeCell ref="CG230:CR230"/>
+    <mergeCell ref="CG268:CR268"/>
+    <mergeCell ref="CG306:CR306"/>
+    <mergeCell ref="CG344:CR344"/>
+    <mergeCell ref="BT1:CE1"/>
+    <mergeCell ref="BT2:CE2"/>
+    <mergeCell ref="BT40:CE40"/>
+    <mergeCell ref="BT78:CE78"/>
+    <mergeCell ref="BT116:CE116"/>
+    <mergeCell ref="BT154:CE154"/>
+    <mergeCell ref="BT192:CE192"/>
+    <mergeCell ref="BT230:CE230"/>
+    <mergeCell ref="BT268:CE268"/>
+    <mergeCell ref="AT306:BE306"/>
+    <mergeCell ref="AT344:BE344"/>
+    <mergeCell ref="AG1:AR1"/>
+    <mergeCell ref="AG2:AR2"/>
+    <mergeCell ref="AG40:AR40"/>
+    <mergeCell ref="AG78:AR78"/>
+    <mergeCell ref="AG116:AR116"/>
+    <mergeCell ref="AG154:AR154"/>
+    <mergeCell ref="AG192:AR192"/>
+    <mergeCell ref="AG230:AR230"/>
+    <mergeCell ref="AG268:AR268"/>
+    <mergeCell ref="AT1:BE1"/>
+    <mergeCell ref="AT2:BE2"/>
+    <mergeCell ref="AT40:BE40"/>
+    <mergeCell ref="AT78:BE78"/>
+    <mergeCell ref="AT116:BE116"/>
+    <mergeCell ref="AT154:BE154"/>
+    <mergeCell ref="AT192:BE192"/>
+    <mergeCell ref="AT230:BE230"/>
+    <mergeCell ref="AT268:BE268"/>
+    <mergeCell ref="G154:R154"/>
+    <mergeCell ref="G306:R306"/>
+    <mergeCell ref="G344:R344"/>
+    <mergeCell ref="G192:R192"/>
+    <mergeCell ref="G230:R230"/>
+    <mergeCell ref="G268:R268"/>
+    <mergeCell ref="G40:R40"/>
+    <mergeCell ref="AG306:AR306"/>
+    <mergeCell ref="AG344:AR344"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G78:R78"/>
+    <mergeCell ref="G116:R116"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="F268:F269"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="F230:F231"/>
+    <mergeCell ref="E230:E231"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="C192:C193"/>
     <mergeCell ref="C344:C345"/>
     <mergeCell ref="B344:B345"/>
     <mergeCell ref="T1:AE1"/>
@@ -62555,137 +62632,65 @@
     <mergeCell ref="B154:B155"/>
     <mergeCell ref="F116:F117"/>
     <mergeCell ref="E116:E117"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="B306:B307"/>
-    <mergeCell ref="F268:F269"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="F230:F231"/>
-    <mergeCell ref="E230:E231"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G78:R78"/>
-    <mergeCell ref="G116:R116"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="G154:R154"/>
-    <mergeCell ref="G306:R306"/>
-    <mergeCell ref="G344:R344"/>
-    <mergeCell ref="G192:R192"/>
-    <mergeCell ref="G230:R230"/>
-    <mergeCell ref="G268:R268"/>
-    <mergeCell ref="G40:R40"/>
-    <mergeCell ref="AG306:AR306"/>
-    <mergeCell ref="AG344:AR344"/>
-    <mergeCell ref="AT306:BE306"/>
-    <mergeCell ref="AT344:BE344"/>
-    <mergeCell ref="AG1:AR1"/>
-    <mergeCell ref="AG2:AR2"/>
-    <mergeCell ref="AG40:AR40"/>
-    <mergeCell ref="AG78:AR78"/>
-    <mergeCell ref="AG116:AR116"/>
-    <mergeCell ref="AG154:AR154"/>
-    <mergeCell ref="AG192:AR192"/>
-    <mergeCell ref="AG230:AR230"/>
-    <mergeCell ref="AG268:AR268"/>
-    <mergeCell ref="AT1:BE1"/>
-    <mergeCell ref="AT2:BE2"/>
-    <mergeCell ref="AT40:BE40"/>
-    <mergeCell ref="AT78:BE78"/>
-    <mergeCell ref="AT116:BE116"/>
-    <mergeCell ref="AT154:BE154"/>
-    <mergeCell ref="AT192:BE192"/>
-    <mergeCell ref="AT230:BE230"/>
-    <mergeCell ref="AT268:BE268"/>
-    <mergeCell ref="BT306:CE306"/>
-    <mergeCell ref="BT344:CE344"/>
-    <mergeCell ref="CG1:CR1"/>
-    <mergeCell ref="CG2:CR2"/>
-    <mergeCell ref="CG40:CR40"/>
-    <mergeCell ref="CG78:CR78"/>
-    <mergeCell ref="CG116:CR116"/>
-    <mergeCell ref="CG154:CR154"/>
-    <mergeCell ref="CG192:CR192"/>
-    <mergeCell ref="CG230:CR230"/>
-    <mergeCell ref="CG268:CR268"/>
-    <mergeCell ref="CG306:CR306"/>
-    <mergeCell ref="CG344:CR344"/>
-    <mergeCell ref="BT1:CE1"/>
-    <mergeCell ref="BT2:CE2"/>
-    <mergeCell ref="BT40:CE40"/>
-    <mergeCell ref="BT78:CE78"/>
-    <mergeCell ref="BT116:CE116"/>
-    <mergeCell ref="BT154:CE154"/>
-    <mergeCell ref="BT192:CE192"/>
-    <mergeCell ref="BT230:CE230"/>
-    <mergeCell ref="BT268:CE268"/>
+    <mergeCell ref="BG306:BR306"/>
+    <mergeCell ref="BG344:BR344"/>
+    <mergeCell ref="BG1:BR1"/>
+    <mergeCell ref="BG2:BR2"/>
+    <mergeCell ref="BG40:BR40"/>
+    <mergeCell ref="BG78:BR78"/>
+    <mergeCell ref="BG116:BR116"/>
+    <mergeCell ref="BG154:BR154"/>
+    <mergeCell ref="BG192:BR192"/>
+    <mergeCell ref="BG230:BR230"/>
+    <mergeCell ref="BG268:BR268"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:CR375">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF40:CR42">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$G$40&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF78:CR80">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$G$78&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF116:CR118">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$G$116&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF154:CR156">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$G$154&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF192:CR194">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$G$192&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF230:CR232">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$G$230&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF268:CR270">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$G$268&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF306:CR308">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$G$306&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF344:CR346">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$G$344&gt;YEAR(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63306,15 +63311,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Abgearbeitet1 xmlns="d0737cc4-51ad-4fb1-9606-c2e4f08abdcc" xsi:nil="true"/>
@@ -63343,6 +63339,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BB3DD71-0520-4E34-8777-836998AFB03B}">
   <ds:schemaRefs>
@@ -63363,14 +63368,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A771B75-BC3D-448A-AA37-B168F0A282F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{147FE04D-8178-480F-BDF1-1CF9808CF5D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -63385,4 +63382,12 @@
     <ds:schemaRef ds:uri="d0737cc4-51ad-4fb1-9606-c2e4f08abdcc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A771B75-BC3D-448A-AA37-B168F0A282F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>